--- a/경기천년사업 기능별 분류맵(안).xlsx
+++ b/경기천년사업 기능별 분류맵(안).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="846" activeTab="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="667">
   <si>
     <t>경기천년 기념사업</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1037,18 +1037,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>온라인운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동식운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오프라인운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>워크숍운영</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1098,14 +1086,6 @@
   </si>
   <si>
     <t>도민설명회운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영상제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영장제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2728,11 +2708,40 @@
     <t>도민의견분석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>온라인플랫폼운영</t>
+  </si>
+  <si>
+    <t>온라인플랫폼운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동식플랫폼운영</t>
+  </si>
+  <si>
+    <t>이동식플랫폼운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오프라인플랫폼운영</t>
+  </si>
+  <si>
+    <t>오프라인플랫폼운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍보영상제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="58">
     <font>
       <sz val="11"/>
@@ -5005,6 +5014,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -5039,6 +5049,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5214,7 +5225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -5223,7 +5234,7 @@
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:N1"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E6"/>
+      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5252,10 +5263,10 @@
         <v>8</v>
       </c>
       <c r="E1" s="211" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F1" s="84" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="G1" s="84" t="s">
         <v>10</v>
@@ -5278,7 +5289,7 @@
         <v>78</v>
       </c>
       <c r="F2" s="173" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -5297,10 +5308,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="213" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F3" s="169" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="1"/>
@@ -5319,10 +5330,10 @@
         <v>13</v>
       </c>
       <c r="E4" s="214" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F4" s="174" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -5344,7 +5355,7 @@
         <v>74</v>
       </c>
       <c r="F5" s="174" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -5360,13 +5371,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="171" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="E6" s="215" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F6" s="171" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
@@ -5388,7 +5399,7 @@
         <v>78</v>
       </c>
       <c r="F7" s="173" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -5410,7 +5421,7 @@
         <v>71</v>
       </c>
       <c r="F8" s="174" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="L8" s="5"/>
     </row>
@@ -5431,7 +5442,7 @@
         <v>72</v>
       </c>
       <c r="F9" s="174" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="L9" s="5"/>
     </row>
@@ -5452,7 +5463,7 @@
         <v>73</v>
       </c>
       <c r="F10" s="175" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="4" customFormat="1">
@@ -5472,7 +5483,7 @@
         <v>78</v>
       </c>
       <c r="F11" s="173" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="5" customFormat="1">
@@ -5489,10 +5500,10 @@
         <v>20</v>
       </c>
       <c r="E12" s="214" t="s">
-        <v>291</v>
+        <v>660</v>
       </c>
       <c r="F12" s="174" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="5" customFormat="1">
@@ -5509,10 +5520,10 @@
         <v>21</v>
       </c>
       <c r="E13" s="214" t="s">
-        <v>292</v>
+        <v>662</v>
       </c>
       <c r="F13" s="174" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="5" customFormat="1">
@@ -5529,10 +5540,10 @@
         <v>22</v>
       </c>
       <c r="E14" s="214" t="s">
-        <v>293</v>
+        <v>664</v>
       </c>
       <c r="F14" s="174" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="5" customFormat="1">
@@ -5549,10 +5560,10 @@
         <v>23</v>
       </c>
       <c r="E15" s="214" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F15" s="174" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="6" customFormat="1" ht="14.25" thickBot="1">
@@ -5590,7 +5601,7 @@
         <v>78</v>
       </c>
       <c r="F17" s="173" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1">
@@ -5610,7 +5621,7 @@
         <v>290</v>
       </c>
       <c r="F18" s="174" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1">
@@ -5627,10 +5638,10 @@
         <v>29</v>
       </c>
       <c r="E19" s="216" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F19" s="175" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="14" customFormat="1">
@@ -5650,7 +5661,7 @@
         <v>78</v>
       </c>
       <c r="F20" s="173" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="5" customFormat="1">
@@ -5670,7 +5681,7 @@
         <v>34</v>
       </c>
       <c r="F21" s="174" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="8" customFormat="1">
@@ -5687,10 +5698,10 @@
         <v>35</v>
       </c>
       <c r="E22" s="214" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F22" s="174" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="8" customFormat="1">
@@ -5764,7 +5775,7 @@
         <v>39</v>
       </c>
       <c r="F26" s="175" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="14" customFormat="1">
@@ -5784,7 +5795,7 @@
         <v>78</v>
       </c>
       <c r="F27" s="173" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5801,10 +5812,10 @@
         <v>30</v>
       </c>
       <c r="E28" s="214" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F28" s="174" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -5821,10 +5832,10 @@
         <v>31</v>
       </c>
       <c r="E29" s="216" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F29" s="175" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5844,7 +5855,7 @@
         <v>78</v>
       </c>
       <c r="F30" s="173" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5861,10 +5872,10 @@
         <v>42</v>
       </c>
       <c r="E31" s="214" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F31" s="174" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5899,10 +5910,10 @@
         <v>44</v>
       </c>
       <c r="E33" s="216" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F33" s="175" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5922,7 +5933,7 @@
         <v>78</v>
       </c>
       <c r="F34" s="173" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -5960,7 +5971,7 @@
         <v>78</v>
       </c>
       <c r="F36" s="173" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5977,10 +5988,10 @@
         <v>48</v>
       </c>
       <c r="E37" s="214" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F37" s="174" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -5997,10 +6008,10 @@
         <v>4</v>
       </c>
       <c r="E38" s="216" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F38" s="175" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -6020,7 +6031,7 @@
         <v>78</v>
       </c>
       <c r="F39" s="173" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -6055,10 +6066,10 @@
         <v>51</v>
       </c>
       <c r="E41" s="214" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F41" s="174" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -6075,10 +6086,10 @@
         <v>52</v>
       </c>
       <c r="E42" s="214" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F42" s="174" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -6095,10 +6106,10 @@
         <v>53</v>
       </c>
       <c r="E43" s="216" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F43" s="175" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -6118,7 +6129,7 @@
         <v>78</v>
       </c>
       <c r="F44" s="173" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -6135,10 +6146,10 @@
         <v>55</v>
       </c>
       <c r="E45" s="214" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F45" s="174" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -6155,10 +6166,10 @@
         <v>56</v>
       </c>
       <c r="E46" s="214" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F46" s="174" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -6175,10 +6186,10 @@
         <v>57</v>
       </c>
       <c r="E47" s="216" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F47" s="175" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6198,7 +6209,7 @@
         <v>78</v>
       </c>
       <c r="F48" s="173" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6215,10 +6226,10 @@
         <v>59</v>
       </c>
       <c r="E49" s="214" t="s">
-        <v>307</v>
+        <v>665</v>
       </c>
       <c r="F49" s="174" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -6256,7 +6267,7 @@
         <v>78</v>
       </c>
       <c r="F51" s="173" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6273,10 +6284,10 @@
         <v>62</v>
       </c>
       <c r="E52" s="214" t="s">
-        <v>308</v>
+        <v>666</v>
       </c>
       <c r="F52" s="174" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -6293,10 +6304,10 @@
         <v>63</v>
       </c>
       <c r="E53" s="216" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F53" s="175" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6316,7 +6327,7 @@
         <v>78</v>
       </c>
       <c r="F54" s="173" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -6333,10 +6344,10 @@
         <v>65</v>
       </c>
       <c r="E55" s="216" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F55" s="175" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="14" customFormat="1">
@@ -6356,7 +6367,7 @@
         <v>78</v>
       </c>
       <c r="F56" s="173" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -6373,10 +6384,10 @@
         <v>67</v>
       </c>
       <c r="E57" s="216" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F57" s="175" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6396,7 +6407,7 @@
         <v>78</v>
       </c>
       <c r="F58" s="173" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6410,13 +6421,13 @@
         <v>68</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E59" s="212" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F59" s="173" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -6430,13 +6441,13 @@
         <v>68</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="E60" s="212" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F60" s="173" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1">
@@ -6450,13 +6461,13 @@
         <v>68</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E61" s="216" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F61" s="175" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="1" customFormat="1">
@@ -6464,19 +6475,19 @@
         <v>0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>221</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="E62" s="212" t="s">
         <v>78</v>
       </c>
       <c r="F62" s="173" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="1" customFormat="1">
@@ -6484,19 +6495,19 @@
         <v>0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>221</v>
       </c>
       <c r="D63" s="158" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E63" s="217" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="1" customFormat="1">
@@ -6504,19 +6515,19 @@
         <v>0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>221</v>
       </c>
       <c r="D64" s="158" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E64" s="217" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1">
@@ -6524,19 +6535,19 @@
         <v>0</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>221</v>
       </c>
       <c r="D65" s="79" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E65" s="216" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F65" s="175" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -6548,7 +6559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6580,16 +6591,16 @@
         <v>272</v>
       </c>
       <c r="D1" s="157" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E1" s="157" t="s">
         <v>288</v>
       </c>
       <c r="F1" s="157" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="G1" s="157" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
@@ -6601,7 +6612,7 @@
       <c r="D2" s="115"/>
       <c r="E2" s="115"/>
       <c r="F2" s="115" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="G2" s="115"/>
     </row>
@@ -6610,7 +6621,7 @@
         <v>281</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C3" s="73" t="s">
         <v>276</v>
@@ -6620,10 +6631,10 @@
       </c>
       <c r="E3" s="73"/>
       <c r="F3" s="73" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G3" s="73" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
@@ -6641,10 +6652,10 @@
       </c>
       <c r="E4" s="73"/>
       <c r="F4" s="73" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G4" s="165" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
@@ -6658,7 +6669,7 @@
         <v>282</v>
       </c>
       <c r="F5" s="73" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="G5" s="73"/>
     </row>
@@ -6670,7 +6681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -6684,67 +6695,67 @@
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1">
       <c r="A1" s="283" t="s">
+        <v>614</v>
+      </c>
+      <c r="B1" s="263" t="s">
+        <v>615</v>
+      </c>
+      <c r="C1" s="263" t="s">
+        <v>615</v>
+      </c>
+      <c r="D1" s="283" t="s">
+        <v>616</v>
+      </c>
+      <c r="E1" s="283" t="s">
+        <v>617</v>
+      </c>
+      <c r="F1" s="283" t="s">
+        <v>618</v>
+      </c>
+      <c r="G1" s="283" t="s">
         <v>619</v>
       </c>
-      <c r="B1" s="263" t="s">
+      <c r="H1" s="263" t="s">
         <v>620</v>
       </c>
-      <c r="C1" s="263" t="s">
-        <v>620</v>
-      </c>
-      <c r="D1" s="283" t="s">
+      <c r="I1" s="283" t="s">
         <v>621</v>
       </c>
-      <c r="E1" s="283" t="s">
+      <c r="J1" s="263" t="s">
         <v>622</v>
       </c>
-      <c r="F1" s="283" t="s">
+      <c r="K1" s="263" t="s">
         <v>623</v>
       </c>
-      <c r="G1" s="283" t="s">
+      <c r="L1" s="263" t="s">
         <v>624</v>
       </c>
-      <c r="H1" s="263" t="s">
+      <c r="M1" s="283" t="s">
         <v>625</v>
       </c>
-      <c r="I1" s="283" t="s">
+      <c r="N1" s="283" t="s">
+        <v>596</v>
+      </c>
+      <c r="O1" s="283" t="s">
         <v>626</v>
       </c>
-      <c r="J1" s="263" t="s">
+      <c r="P1" s="283" t="s">
         <v>627</v>
       </c>
-      <c r="K1" s="263" t="s">
+      <c r="Q1" s="263" t="s">
         <v>628</v>
       </c>
-      <c r="L1" s="263" t="s">
+      <c r="R1" s="283" t="s">
         <v>629</v>
       </c>
-      <c r="M1" s="283" t="s">
+      <c r="S1" s="283" t="s">
         <v>630</v>
       </c>
-      <c r="N1" s="283" t="s">
-        <v>601</v>
-      </c>
-      <c r="O1" s="283" t="s">
+      <c r="T1" s="283" t="s">
         <v>631</v>
       </c>
-      <c r="P1" s="283" t="s">
+      <c r="U1" s="283" t="s">
         <v>632</v>
-      </c>
-      <c r="Q1" s="263" t="s">
-        <v>633</v>
-      </c>
-      <c r="R1" s="283" t="s">
-        <v>634</v>
-      </c>
-      <c r="S1" s="283" t="s">
-        <v>635</v>
-      </c>
-      <c r="T1" s="283" t="s">
-        <v>636</v>
-      </c>
-      <c r="U1" s="283" t="s">
-        <v>637</v>
       </c>
       <c r="V1" s="283" t="s">
         <v>89</v>
@@ -6753,34 +6764,34 @@
     <row r="2" spans="1:22">
       <c r="A2" s="284"/>
       <c r="B2" s="264" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="C2" s="264" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D2" s="284"/>
       <c r="E2" s="284"/>
       <c r="F2" s="284"/>
       <c r="G2" s="284"/>
       <c r="H2" s="264" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="I2" s="284"/>
       <c r="J2" s="264" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="K2" s="264" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="L2" s="264" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="M2" s="284"/>
       <c r="N2" s="284"/>
       <c r="O2" s="284"/>
       <c r="P2" s="284"/>
       <c r="Q2" s="264" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="R2" s="284"/>
       <c r="S2" s="284"/>
@@ -6790,7 +6801,7 @@
     </row>
     <row r="3" spans="1:22" ht="17.25">
       <c r="A3" s="285" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B3" s="286"/>
       <c r="C3" s="286"/>
@@ -6805,7 +6816,7 @@
       <c r="L3" s="286"/>
       <c r="M3" s="287"/>
       <c r="N3" s="285" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="O3" s="286"/>
       <c r="P3" s="286"/>
@@ -6814,7 +6825,7 @@
       <c r="S3" s="286"/>
       <c r="T3" s="287"/>
       <c r="U3" s="285" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="V3" s="287"/>
     </row>
@@ -6840,14 +6851,12 @@
       <c r="S4" s="289"/>
       <c r="T4" s="290"/>
       <c r="U4" s="288" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="V4" s="290"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
@@ -6865,6 +6874,8 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6872,15 +6883,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6913,40 +6924,40 @@
         <v>70</v>
       </c>
       <c r="D1" s="244" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E1" s="228" t="s">
+        <v>597</v>
+      </c>
+      <c r="F1" s="228" t="s">
+        <v>584</v>
+      </c>
+      <c r="G1" s="244" t="s">
         <v>602</v>
       </c>
-      <c r="F1" s="228" t="s">
-        <v>589</v>
-      </c>
-      <c r="G1" s="244" t="s">
+      <c r="H1" s="228" t="s">
+        <v>568</v>
+      </c>
+      <c r="I1" s="244" t="s">
         <v>607</v>
       </c>
-      <c r="H1" s="228" t="s">
+      <c r="J1" s="227" t="s">
+        <v>294</v>
+      </c>
+      <c r="K1" s="227" t="s">
+        <v>586</v>
+      </c>
+      <c r="L1" s="227" t="s">
         <v>573</v>
       </c>
-      <c r="I1" s="244" t="s">
-        <v>612</v>
-      </c>
-      <c r="J1" s="227" t="s">
-        <v>297</v>
-      </c>
-      <c r="K1" s="227" t="s">
-        <v>591</v>
-      </c>
-      <c r="L1" s="227" t="s">
-        <v>578</v>
-      </c>
       <c r="M1" s="246" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="N1" s="246" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="O1" s="245" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="27">
@@ -6960,7 +6971,7 @@
         <v>77</v>
       </c>
       <c r="D2" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E2" s="82"/>
       <c r="F2" s="82"/>
@@ -6969,25 +6980,25 @@
         <v>76</v>
       </c>
       <c r="I2" s="82" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="J2" s="173" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="K2" s="173" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="L2" s="173" t="s">
+        <v>577</v>
+      </c>
+      <c r="M2" s="247" t="s">
+        <v>581</v>
+      </c>
+      <c r="N2" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="M2" s="247" t="s">
-        <v>586</v>
-      </c>
-      <c r="N2" s="247" t="s">
-        <v>587</v>
-      </c>
       <c r="O2" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="54">
@@ -6998,10 +7009,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="169" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E3" s="76"/>
       <c r="F3" s="76"/>
@@ -7010,21 +7021,21 @@
         <v>76</v>
       </c>
       <c r="I3" s="76" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="169"/>
       <c r="L3" s="169" t="s">
+        <v>577</v>
+      </c>
+      <c r="M3" s="248" t="s">
+        <v>581</v>
+      </c>
+      <c r="N3" s="248" t="s">
         <v>582</v>
       </c>
-      <c r="M3" s="248" t="s">
-        <v>586</v>
-      </c>
-      <c r="N3" s="248" t="s">
-        <v>587</v>
-      </c>
       <c r="O3" s="169" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="40.5">
@@ -7035,10 +7046,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="170" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D4" s="81" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E4" s="81"/>
       <c r="F4" s="81"/>
@@ -7047,21 +7058,21 @@
         <v>76</v>
       </c>
       <c r="I4" s="81" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="174"/>
       <c r="L4" s="174" t="s">
+        <v>577</v>
+      </c>
+      <c r="M4" s="249" t="s">
+        <v>581</v>
+      </c>
+      <c r="N4" s="249" t="s">
         <v>582</v>
       </c>
-      <c r="M4" s="249" t="s">
-        <v>586</v>
-      </c>
-      <c r="N4" s="249" t="s">
-        <v>587</v>
-      </c>
       <c r="O4" s="174" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="27">
@@ -7072,10 +7083,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="170" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D5" s="81" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E5" s="77"/>
       <c r="F5" s="77"/>
@@ -7084,21 +7095,21 @@
         <v>76</v>
       </c>
       <c r="I5" s="81" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="174"/>
       <c r="L5" s="174" t="s">
+        <v>577</v>
+      </c>
+      <c r="M5" s="249" t="s">
+        <v>581</v>
+      </c>
+      <c r="N5" s="249" t="s">
         <v>582</v>
       </c>
-      <c r="M5" s="249" t="s">
-        <v>586</v>
-      </c>
-      <c r="N5" s="249" t="s">
-        <v>587</v>
-      </c>
       <c r="O5" s="174" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="27.75" thickBot="1">
@@ -7109,10 +7120,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="171" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="D6" s="258" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E6" s="78"/>
       <c r="F6" s="78"/>
@@ -7121,21 +7132,21 @@
         <v>76</v>
       </c>
       <c r="I6" s="258" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="171"/>
       <c r="L6" s="171" t="s">
+        <v>577</v>
+      </c>
+      <c r="M6" s="250" t="s">
+        <v>581</v>
+      </c>
+      <c r="N6" s="250" t="s">
         <v>582</v>
       </c>
-      <c r="M6" s="250" t="s">
-        <v>586</v>
-      </c>
-      <c r="N6" s="250" t="s">
-        <v>587</v>
-      </c>
       <c r="O6" s="171" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="27">
@@ -7149,7 +7160,7 @@
         <v>77</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E7" s="82"/>
       <c r="F7" s="82"/>
@@ -7158,25 +7169,25 @@
         <v>76</v>
       </c>
       <c r="I7" s="82" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="J7" s="173" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="K7" s="173" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="L7" s="173" t="s">
+        <v>577</v>
+      </c>
+      <c r="M7" s="247" t="s">
+        <v>581</v>
+      </c>
+      <c r="N7" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="M7" s="247" t="s">
-        <v>586</v>
-      </c>
-      <c r="N7" s="247" t="s">
-        <v>587</v>
-      </c>
       <c r="O7" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="27">
@@ -7190,7 +7201,7 @@
         <v>71</v>
       </c>
       <c r="D8" s="81" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E8" s="77"/>
       <c r="F8" s="77"/>
@@ -7199,21 +7210,21 @@
         <v>76</v>
       </c>
       <c r="I8" s="81" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="174"/>
       <c r="L8" s="174" t="s">
+        <v>577</v>
+      </c>
+      <c r="M8" s="249" t="s">
+        <v>581</v>
+      </c>
+      <c r="N8" s="249" t="s">
         <v>582</v>
       </c>
-      <c r="M8" s="249" t="s">
-        <v>586</v>
-      </c>
-      <c r="N8" s="249" t="s">
-        <v>587</v>
-      </c>
       <c r="O8" s="174" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="27">
@@ -7227,7 +7238,7 @@
         <v>72</v>
       </c>
       <c r="D9" s="81" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E9" s="77"/>
       <c r="F9" s="77"/>
@@ -7236,21 +7247,21 @@
         <v>76</v>
       </c>
       <c r="I9" s="81" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="174"/>
       <c r="L9" s="174" t="s">
+        <v>577</v>
+      </c>
+      <c r="M9" s="249" t="s">
+        <v>581</v>
+      </c>
+      <c r="N9" s="249" t="s">
         <v>582</v>
       </c>
-      <c r="M9" s="249" t="s">
-        <v>586</v>
-      </c>
-      <c r="N9" s="249" t="s">
-        <v>587</v>
-      </c>
       <c r="O9" s="174" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="27.75" thickBot="1">
@@ -7264,7 +7275,7 @@
         <v>73</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E10" s="80"/>
       <c r="F10" s="80"/>
@@ -7273,21 +7284,21 @@
         <v>76</v>
       </c>
       <c r="I10" s="80" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="175"/>
       <c r="L10" s="175" t="s">
+        <v>577</v>
+      </c>
+      <c r="M10" s="251" t="s">
+        <v>581</v>
+      </c>
+      <c r="N10" s="251" t="s">
         <v>582</v>
       </c>
-      <c r="M10" s="251" t="s">
-        <v>586</v>
-      </c>
-      <c r="N10" s="251" t="s">
-        <v>587</v>
-      </c>
       <c r="O10" s="175" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="27">
@@ -7301,7 +7312,7 @@
         <v>77</v>
       </c>
       <c r="D11" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E11" s="82"/>
       <c r="F11" s="82"/>
@@ -7310,25 +7321,25 @@
         <v>76</v>
       </c>
       <c r="I11" s="82" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="J11" s="173" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="K11" s="173" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="L11" s="173" t="s">
+        <v>577</v>
+      </c>
+      <c r="M11" s="247" t="s">
+        <v>581</v>
+      </c>
+      <c r="N11" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="M11" s="247" t="s">
-        <v>586</v>
-      </c>
-      <c r="N11" s="247" t="s">
-        <v>587</v>
-      </c>
       <c r="O11" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="27">
@@ -7339,10 +7350,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>291</v>
+        <v>659</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E12" s="77"/>
       <c r="F12" s="77"/>
@@ -7351,21 +7362,21 @@
         <v>76</v>
       </c>
       <c r="I12" s="81" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="174"/>
       <c r="L12" s="174" t="s">
+        <v>577</v>
+      </c>
+      <c r="M12" s="249" t="s">
+        <v>581</v>
+      </c>
+      <c r="N12" s="249" t="s">
         <v>582</v>
       </c>
-      <c r="M12" s="249" t="s">
-        <v>586</v>
-      </c>
-      <c r="N12" s="249" t="s">
-        <v>587</v>
-      </c>
       <c r="O12" s="174" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="40.5">
@@ -7376,10 +7387,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>292</v>
+        <v>661</v>
       </c>
       <c r="D13" s="81" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E13" s="81"/>
       <c r="F13" s="81"/>
@@ -7388,21 +7399,21 @@
         <v>76</v>
       </c>
       <c r="I13" s="81" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="174"/>
       <c r="L13" s="174" t="s">
+        <v>577</v>
+      </c>
+      <c r="M13" s="249" t="s">
+        <v>581</v>
+      </c>
+      <c r="N13" s="249" t="s">
         <v>582</v>
       </c>
-      <c r="M13" s="249" t="s">
-        <v>586</v>
-      </c>
-      <c r="N13" s="249" t="s">
-        <v>587</v>
-      </c>
       <c r="O13" s="174" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="27">
@@ -7413,10 +7424,10 @@
         <v>5</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>293</v>
+        <v>663</v>
       </c>
       <c r="D14" s="81" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E14" s="77"/>
       <c r="F14" s="77"/>
@@ -7425,21 +7436,21 @@
         <v>76</v>
       </c>
       <c r="I14" s="81" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="174"/>
       <c r="L14" s="174" t="s">
+        <v>577</v>
+      </c>
+      <c r="M14" s="249" t="s">
+        <v>581</v>
+      </c>
+      <c r="N14" s="249" t="s">
         <v>582</v>
       </c>
-      <c r="M14" s="249" t="s">
-        <v>586</v>
-      </c>
-      <c r="N14" s="249" t="s">
-        <v>587</v>
-      </c>
       <c r="O14" s="174" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="226" customFormat="1" ht="41.25" thickBot="1">
@@ -7450,10 +7461,10 @@
         <v>5</v>
       </c>
       <c r="C15" s="175" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D15" s="80" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E15" s="80"/>
       <c r="F15" s="80"/>
@@ -7462,21 +7473,21 @@
         <v>76</v>
       </c>
       <c r="I15" s="80" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="J15" s="175"/>
       <c r="K15" s="175"/>
       <c r="L15" s="175" t="s">
+        <v>577</v>
+      </c>
+      <c r="M15" s="251" t="s">
+        <v>581</v>
+      </c>
+      <c r="N15" s="251" t="s">
         <v>582</v>
       </c>
-      <c r="M15" s="251" t="s">
-        <v>586</v>
-      </c>
-      <c r="N15" s="251" t="s">
-        <v>587</v>
-      </c>
       <c r="O15" s="175" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="27">
@@ -7490,7 +7501,7 @@
         <v>77</v>
       </c>
       <c r="D16" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E16" s="82"/>
       <c r="F16" s="82"/>
@@ -7499,25 +7510,25 @@
         <v>76</v>
       </c>
       <c r="I16" s="82" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="J16" s="173" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="K16" s="173" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="L16" s="173" t="s">
+        <v>577</v>
+      </c>
+      <c r="M16" s="247" t="s">
+        <v>581</v>
+      </c>
+      <c r="N16" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="M16" s="247" t="s">
-        <v>586</v>
-      </c>
-      <c r="N16" s="247" t="s">
-        <v>587</v>
-      </c>
       <c r="O16" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="27">
@@ -7531,7 +7542,7 @@
         <v>290</v>
       </c>
       <c r="D17" s="81" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E17" s="77"/>
       <c r="F17" s="77"/>
@@ -7540,21 +7551,21 @@
         <v>76</v>
       </c>
       <c r="I17" s="81" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="J17" s="14"/>
       <c r="K17" s="174"/>
       <c r="L17" s="174" t="s">
+        <v>577</v>
+      </c>
+      <c r="M17" s="249" t="s">
+        <v>581</v>
+      </c>
+      <c r="N17" s="249" t="s">
         <v>582</v>
       </c>
-      <c r="M17" s="249" t="s">
-        <v>586</v>
-      </c>
-      <c r="N17" s="249" t="s">
-        <v>587</v>
-      </c>
       <c r="O17" s="174" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="27.75" thickBot="1">
@@ -7565,10 +7576,10 @@
         <v>27</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D18" s="80" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E18" s="79"/>
       <c r="F18" s="79"/>
@@ -7577,21 +7588,21 @@
         <v>76</v>
       </c>
       <c r="I18" s="80" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="175"/>
       <c r="L18" s="175" t="s">
+        <v>577</v>
+      </c>
+      <c r="M18" s="251" t="s">
+        <v>581</v>
+      </c>
+      <c r="N18" s="251" t="s">
         <v>582</v>
       </c>
-      <c r="M18" s="251" t="s">
-        <v>586</v>
-      </c>
-      <c r="N18" s="251" t="s">
-        <v>587</v>
-      </c>
       <c r="O18" s="175" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="222" customFormat="1" ht="27">
@@ -7605,40 +7616,40 @@
         <v>77</v>
       </c>
       <c r="D19" s="265" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="E19" s="265" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="F19" s="265" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="G19" s="265" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="H19" s="265" t="s">
         <v>76</v>
       </c>
       <c r="I19" s="265" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="J19" s="218" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="K19" s="218" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="L19" s="218" t="s">
+        <v>577</v>
+      </c>
+      <c r="M19" s="247" t="s">
+        <v>581</v>
+      </c>
+      <c r="N19" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="M19" s="247" t="s">
-        <v>586</v>
-      </c>
-      <c r="N19" s="247" t="s">
-        <v>587</v>
-      </c>
       <c r="O19" s="218" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="222" customFormat="1" ht="40.5">
@@ -7652,40 +7663,40 @@
         <v>34</v>
       </c>
       <c r="D20" s="266" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E20" s="267" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="F20" s="267" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G20" s="267" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="H20" s="267" t="s">
         <v>76</v>
       </c>
       <c r="I20" s="266" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="J20" s="219" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="K20" s="219" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="L20" s="219" t="s">
+        <v>577</v>
+      </c>
+      <c r="M20" s="249" t="s">
+        <v>581</v>
+      </c>
+      <c r="N20" s="249" t="s">
         <v>582</v>
       </c>
-      <c r="M20" s="249" t="s">
-        <v>586</v>
-      </c>
-      <c r="N20" s="249" t="s">
-        <v>587</v>
-      </c>
       <c r="O20" s="219" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="222" customFormat="1" ht="40.5">
@@ -7696,43 +7707,43 @@
         <v>32</v>
       </c>
       <c r="C21" s="219" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D21" s="266" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E21" s="266" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="F21" s="266" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="G21" s="266" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="H21" s="266" t="s">
         <v>76</v>
       </c>
       <c r="I21" s="266" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="J21" s="219" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="K21" s="219" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="L21" s="219" t="s">
+        <v>577</v>
+      </c>
+      <c r="M21" s="249" t="s">
+        <v>581</v>
+      </c>
+      <c r="N21" s="249" t="s">
         <v>582</v>
       </c>
-      <c r="M21" s="249" t="s">
-        <v>586</v>
-      </c>
-      <c r="N21" s="249" t="s">
-        <v>587</v>
-      </c>
       <c r="O21" s="219" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="222" customFormat="1" ht="41.25" thickBot="1">
@@ -7743,43 +7754,43 @@
         <v>32</v>
       </c>
       <c r="C22" s="221" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D22" s="268" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="E22" s="268" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F22" s="268" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G22" s="268" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="H22" s="268" t="s">
         <v>76</v>
       </c>
       <c r="I22" s="268" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="J22" s="221" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="K22" s="221" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="L22" s="221" t="s">
+        <v>577</v>
+      </c>
+      <c r="M22" s="251" t="s">
+        <v>581</v>
+      </c>
+      <c r="N22" s="251" t="s">
         <v>582</v>
       </c>
-      <c r="M22" s="251" t="s">
-        <v>586</v>
-      </c>
-      <c r="N22" s="251" t="s">
-        <v>587</v>
-      </c>
       <c r="O22" s="221" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="27">
@@ -7793,7 +7804,7 @@
         <v>77</v>
       </c>
       <c r="D23" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E23" s="82"/>
       <c r="F23" s="82"/>
@@ -7802,25 +7813,25 @@
         <v>76</v>
       </c>
       <c r="I23" s="82" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J23" s="173" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="K23" s="173" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="L23" s="173" t="s">
+        <v>577</v>
+      </c>
+      <c r="M23" s="247" t="s">
+        <v>581</v>
+      </c>
+      <c r="N23" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="M23" s="247" t="s">
-        <v>586</v>
-      </c>
-      <c r="N23" s="247" t="s">
-        <v>587</v>
-      </c>
       <c r="O23" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="27">
@@ -7831,10 +7842,10 @@
         <v>26</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D24" s="81" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E24" s="77"/>
       <c r="F24" s="77"/>
@@ -7843,21 +7854,21 @@
         <v>76</v>
       </c>
       <c r="I24" s="81" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J24" s="14"/>
       <c r="K24" s="174"/>
       <c r="L24" s="174" t="s">
+        <v>577</v>
+      </c>
+      <c r="M24" s="249" t="s">
+        <v>581</v>
+      </c>
+      <c r="N24" s="249" t="s">
         <v>582</v>
       </c>
-      <c r="M24" s="249" t="s">
-        <v>586</v>
-      </c>
-      <c r="N24" s="249" t="s">
-        <v>587</v>
-      </c>
       <c r="O24" s="174" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="27.75" thickBot="1">
@@ -7868,7 +7879,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D25" s="80"/>
       <c r="E25" s="79"/>
@@ -7878,21 +7889,21 @@
         <v>76</v>
       </c>
       <c r="I25" s="80" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="175"/>
       <c r="L25" s="175" t="s">
+        <v>577</v>
+      </c>
+      <c r="M25" s="251" t="s">
+        <v>581</v>
+      </c>
+      <c r="N25" s="251" t="s">
         <v>582</v>
       </c>
-      <c r="M25" s="251" t="s">
-        <v>586</v>
-      </c>
-      <c r="N25" s="251" t="s">
-        <v>587</v>
-      </c>
       <c r="O25" s="175" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="27">
@@ -7906,7 +7917,7 @@
         <v>77</v>
       </c>
       <c r="D26" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E26" s="82"/>
       <c r="F26" s="82"/>
@@ -7915,25 +7926,25 @@
         <v>76</v>
       </c>
       <c r="I26" s="82" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J26" s="173" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="K26" s="173" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="L26" s="173" t="s">
+        <v>577</v>
+      </c>
+      <c r="M26" s="247" t="s">
+        <v>581</v>
+      </c>
+      <c r="N26" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="M26" s="247" t="s">
-        <v>586</v>
-      </c>
-      <c r="N26" s="247" t="s">
-        <v>587</v>
-      </c>
       <c r="O26" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="27">
@@ -7944,10 +7955,10 @@
         <v>41</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D27" s="81" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E27" s="77"/>
       <c r="F27" s="77"/>
@@ -7956,21 +7967,21 @@
         <v>76</v>
       </c>
       <c r="I27" s="81" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J27" s="14"/>
       <c r="K27" s="174"/>
       <c r="L27" s="174" t="s">
+        <v>577</v>
+      </c>
+      <c r="M27" s="249" t="s">
+        <v>581</v>
+      </c>
+      <c r="N27" s="249" t="s">
         <v>582</v>
       </c>
-      <c r="M27" s="249" t="s">
-        <v>586</v>
-      </c>
-      <c r="N27" s="249" t="s">
-        <v>587</v>
-      </c>
       <c r="O27" s="174" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="27.75" thickBot="1">
@@ -7981,7 +7992,7 @@
         <v>41</v>
       </c>
       <c r="C28" s="175" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D28" s="80"/>
       <c r="E28" s="79"/>
@@ -7991,21 +8002,21 @@
         <v>76</v>
       </c>
       <c r="I28" s="80" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J28" s="175"/>
       <c r="K28" s="175"/>
       <c r="L28" s="175" t="s">
+        <v>577</v>
+      </c>
+      <c r="M28" s="251" t="s">
+        <v>581</v>
+      </c>
+      <c r="N28" s="251" t="s">
         <v>582</v>
       </c>
-      <c r="M28" s="251" t="s">
-        <v>586</v>
-      </c>
-      <c r="N28" s="251" t="s">
-        <v>587</v>
-      </c>
       <c r="O28" s="175" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="226" customFormat="1" ht="27.75" thickBot="1">
@@ -8016,37 +8027,37 @@
         <v>45</v>
       </c>
       <c r="C29" s="175" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D29" s="259" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="E29" s="175"/>
       <c r="F29" s="175"/>
       <c r="G29" s="175"/>
       <c r="H29" s="175" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="I29" s="259" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J29" s="175" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K29" s="175" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="L29" s="171" t="s">
+        <v>577</v>
+      </c>
+      <c r="M29" s="250" t="s">
+        <v>581</v>
+      </c>
+      <c r="N29" s="250" t="s">
         <v>582</v>
       </c>
-      <c r="M29" s="250" t="s">
-        <v>586</v>
-      </c>
-      <c r="N29" s="250" t="s">
-        <v>587</v>
-      </c>
       <c r="O29" s="171" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="27">
@@ -8060,7 +8071,7 @@
         <v>77</v>
       </c>
       <c r="D30" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E30" s="82"/>
       <c r="F30" s="82"/>
@@ -8069,25 +8080,25 @@
         <v>76</v>
       </c>
       <c r="I30" s="82" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J30" s="173" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="K30" s="173" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="L30" s="173" t="s">
+        <v>577</v>
+      </c>
+      <c r="M30" s="247" t="s">
+        <v>581</v>
+      </c>
+      <c r="N30" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="M30" s="247" t="s">
-        <v>586</v>
-      </c>
-      <c r="N30" s="247" t="s">
-        <v>587</v>
-      </c>
       <c r="O30" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="27">
@@ -8098,10 +8109,10 @@
         <v>46</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D31" s="81" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E31" s="77"/>
       <c r="F31" s="77"/>
@@ -8110,21 +8121,21 @@
         <v>76</v>
       </c>
       <c r="I31" s="81" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J31" s="14"/>
       <c r="K31" s="174"/>
       <c r="L31" s="174" t="s">
+        <v>577</v>
+      </c>
+      <c r="M31" s="249" t="s">
+        <v>581</v>
+      </c>
+      <c r="N31" s="249" t="s">
         <v>582</v>
       </c>
-      <c r="M31" s="249" t="s">
-        <v>586</v>
-      </c>
-      <c r="N31" s="249" t="s">
-        <v>587</v>
-      </c>
       <c r="O31" s="174" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="41.25" thickBot="1">
@@ -8135,10 +8146,10 @@
         <v>46</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D32" s="80" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E32" s="80"/>
       <c r="F32" s="80"/>
@@ -8147,21 +8158,21 @@
         <v>76</v>
       </c>
       <c r="I32" s="80" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="175"/>
       <c r="L32" s="175" t="s">
+        <v>577</v>
+      </c>
+      <c r="M32" s="251" t="s">
+        <v>581</v>
+      </c>
+      <c r="N32" s="251" t="s">
         <v>582</v>
       </c>
-      <c r="M32" s="251" t="s">
-        <v>586</v>
-      </c>
-      <c r="N32" s="251" t="s">
-        <v>587</v>
-      </c>
       <c r="O32" s="175" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="27">
@@ -8175,7 +8186,7 @@
         <v>77</v>
       </c>
       <c r="D33" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E33" s="82"/>
       <c r="F33" s="82"/>
@@ -8184,25 +8195,25 @@
         <v>76</v>
       </c>
       <c r="I33" s="82" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J33" s="173" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="K33" s="173" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="L33" s="173" t="s">
+        <v>577</v>
+      </c>
+      <c r="M33" s="247" t="s">
+        <v>581</v>
+      </c>
+      <c r="N33" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="M33" s="247" t="s">
-        <v>586</v>
-      </c>
-      <c r="N33" s="247" t="s">
-        <v>587</v>
-      </c>
       <c r="O33" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="67.5">
@@ -8213,10 +8224,10 @@
         <v>49</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D34" s="81" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E34" s="81"/>
       <c r="F34" s="81"/>
@@ -8225,21 +8236,21 @@
         <v>76</v>
       </c>
       <c r="I34" s="81" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J34" s="14"/>
       <c r="K34" s="174"/>
       <c r="L34" s="174" t="s">
+        <v>577</v>
+      </c>
+      <c r="M34" s="249" t="s">
+        <v>581</v>
+      </c>
+      <c r="N34" s="249" t="s">
         <v>582</v>
       </c>
-      <c r="M34" s="249" t="s">
-        <v>586</v>
-      </c>
-      <c r="N34" s="249" t="s">
-        <v>587</v>
-      </c>
       <c r="O34" s="174" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="27">
@@ -8250,10 +8261,10 @@
         <v>49</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D35" s="81" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E35" s="81"/>
       <c r="F35" s="81"/>
@@ -8262,21 +8273,21 @@
         <v>76</v>
       </c>
       <c r="I35" s="81" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J35" s="14"/>
       <c r="K35" s="174"/>
       <c r="L35" s="174" t="s">
+        <v>577</v>
+      </c>
+      <c r="M35" s="249" t="s">
+        <v>581</v>
+      </c>
+      <c r="N35" s="249" t="s">
         <v>582</v>
       </c>
-      <c r="M35" s="249" t="s">
-        <v>586</v>
-      </c>
-      <c r="N35" s="249" t="s">
-        <v>587</v>
-      </c>
       <c r="O35" s="174" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="27.75" thickBot="1">
@@ -8287,10 +8298,10 @@
         <v>49</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D36" s="260" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E36" s="166"/>
       <c r="F36" s="166"/>
@@ -8299,21 +8310,21 @@
         <v>76</v>
       </c>
       <c r="I36" s="260" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="175"/>
       <c r="L36" s="175" t="s">
+        <v>577</v>
+      </c>
+      <c r="M36" s="251" t="s">
+        <v>581</v>
+      </c>
+      <c r="N36" s="251" t="s">
         <v>582</v>
       </c>
-      <c r="M36" s="251" t="s">
-        <v>586</v>
-      </c>
-      <c r="N36" s="251" t="s">
-        <v>587</v>
-      </c>
       <c r="O36" s="175" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="27">
@@ -8327,7 +8338,7 @@
         <v>77</v>
       </c>
       <c r="D37" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E37" s="82"/>
       <c r="F37" s="82"/>
@@ -8336,25 +8347,25 @@
         <v>76</v>
       </c>
       <c r="I37" s="82" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J37" s="173" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="K37" s="173" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="L37" s="173" t="s">
+        <v>577</v>
+      </c>
+      <c r="M37" s="247" t="s">
+        <v>581</v>
+      </c>
+      <c r="N37" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="M37" s="247" t="s">
-        <v>586</v>
-      </c>
-      <c r="N37" s="247" t="s">
-        <v>587</v>
-      </c>
       <c r="O37" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="27">
@@ -8365,10 +8376,10 @@
         <v>54</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D38" s="81" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E38" s="77"/>
       <c r="F38" s="77"/>
@@ -8377,21 +8388,21 @@
         <v>76</v>
       </c>
       <c r="I38" s="81" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J38" s="14"/>
       <c r="K38" s="174"/>
       <c r="L38" s="174" t="s">
+        <v>577</v>
+      </c>
+      <c r="M38" s="249" t="s">
+        <v>581</v>
+      </c>
+      <c r="N38" s="249" t="s">
         <v>582</v>
       </c>
-      <c r="M38" s="249" t="s">
-        <v>586</v>
-      </c>
-      <c r="N38" s="249" t="s">
-        <v>587</v>
-      </c>
       <c r="O38" s="174" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="40.5">
@@ -8402,10 +8413,10 @@
         <v>54</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D39" s="81" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E39" s="81"/>
       <c r="F39" s="81"/>
@@ -8414,21 +8425,21 @@
         <v>76</v>
       </c>
       <c r="I39" s="81" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J39" s="14"/>
       <c r="K39" s="174"/>
       <c r="L39" s="174" t="s">
+        <v>577</v>
+      </c>
+      <c r="M39" s="249" t="s">
+        <v>581</v>
+      </c>
+      <c r="N39" s="249" t="s">
         <v>582</v>
       </c>
-      <c r="M39" s="249" t="s">
-        <v>586</v>
-      </c>
-      <c r="N39" s="249" t="s">
-        <v>587</v>
-      </c>
       <c r="O39" s="174" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="27.75" thickBot="1">
@@ -8439,10 +8450,10 @@
         <v>54</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D40" s="80" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E40" s="79"/>
       <c r="F40" s="79"/>
@@ -8451,21 +8462,21 @@
         <v>76</v>
       </c>
       <c r="I40" s="80" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="175"/>
       <c r="L40" s="175" t="s">
+        <v>577</v>
+      </c>
+      <c r="M40" s="251" t="s">
+        <v>581</v>
+      </c>
+      <c r="N40" s="251" t="s">
         <v>582</v>
       </c>
-      <c r="M40" s="251" t="s">
-        <v>586</v>
-      </c>
-      <c r="N40" s="251" t="s">
-        <v>587</v>
-      </c>
       <c r="O40" s="175" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="27">
@@ -8479,7 +8490,7 @@
         <v>77</v>
       </c>
       <c r="D41" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E41" s="82"/>
       <c r="F41" s="82"/>
@@ -8488,25 +8499,25 @@
         <v>76</v>
       </c>
       <c r="I41" s="82" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J41" s="173" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="K41" s="173" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="L41" s="173" t="s">
+        <v>577</v>
+      </c>
+      <c r="M41" s="247" t="s">
+        <v>581</v>
+      </c>
+      <c r="N41" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="M41" s="247" t="s">
-        <v>586</v>
-      </c>
-      <c r="N41" s="247" t="s">
-        <v>587</v>
-      </c>
       <c r="O41" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="226" customFormat="1" ht="27.75" thickBot="1">
@@ -8517,7 +8528,7 @@
         <v>58</v>
       </c>
       <c r="C42" s="175" t="s">
-        <v>307</v>
+        <v>665</v>
       </c>
       <c r="D42" s="80"/>
       <c r="E42" s="79"/>
@@ -8527,21 +8538,21 @@
         <v>76</v>
       </c>
       <c r="I42" s="80" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J42" s="175"/>
       <c r="K42" s="175"/>
       <c r="L42" s="175" t="s">
+        <v>577</v>
+      </c>
+      <c r="M42" s="251" t="s">
+        <v>581</v>
+      </c>
+      <c r="N42" s="251" t="s">
         <v>582</v>
       </c>
-      <c r="M42" s="251" t="s">
-        <v>586</v>
-      </c>
-      <c r="N42" s="251" t="s">
-        <v>587</v>
-      </c>
       <c r="O42" s="175" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="27">
@@ -8555,7 +8566,7 @@
         <v>77</v>
       </c>
       <c r="D43" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E43" s="82"/>
       <c r="F43" s="82"/>
@@ -8564,25 +8575,25 @@
         <v>76</v>
       </c>
       <c r="I43" s="82" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J43" s="173" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="K43" s="173" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="L43" s="173" t="s">
+        <v>577</v>
+      </c>
+      <c r="M43" s="247" t="s">
+        <v>581</v>
+      </c>
+      <c r="N43" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="M43" s="247" t="s">
-        <v>586</v>
-      </c>
-      <c r="N43" s="247" t="s">
-        <v>587</v>
-      </c>
       <c r="O43" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="67.5">
@@ -8593,10 +8604,10 @@
         <v>61</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>308</v>
+        <v>666</v>
       </c>
       <c r="D44" s="81" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E44" s="81"/>
       <c r="F44" s="81"/>
@@ -8605,21 +8616,21 @@
         <v>76</v>
       </c>
       <c r="I44" s="81" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J44" s="14"/>
       <c r="K44" s="174"/>
       <c r="L44" s="174" t="s">
+        <v>577</v>
+      </c>
+      <c r="M44" s="249" t="s">
+        <v>581</v>
+      </c>
+      <c r="N44" s="249" t="s">
         <v>582</v>
       </c>
-      <c r="M44" s="249" t="s">
-        <v>586</v>
-      </c>
-      <c r="N44" s="249" t="s">
-        <v>587</v>
-      </c>
       <c r="O44" s="174" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="27.75" thickBot="1">
@@ -8630,7 +8641,7 @@
         <v>61</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D45" s="80"/>
       <c r="E45" s="79"/>
@@ -8640,21 +8651,21 @@
         <v>76</v>
       </c>
       <c r="I45" s="80" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J45" s="6"/>
       <c r="K45" s="175"/>
       <c r="L45" s="175" t="s">
+        <v>577</v>
+      </c>
+      <c r="M45" s="251" t="s">
+        <v>581</v>
+      </c>
+      <c r="N45" s="251" t="s">
         <v>582</v>
       </c>
-      <c r="M45" s="251" t="s">
-        <v>586</v>
-      </c>
-      <c r="N45" s="251" t="s">
-        <v>587</v>
-      </c>
       <c r="O45" s="175" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="27">
@@ -8668,7 +8679,7 @@
         <v>77</v>
       </c>
       <c r="D46" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E46" s="82"/>
       <c r="F46" s="82"/>
@@ -8677,25 +8688,25 @@
         <v>76</v>
       </c>
       <c r="I46" s="82" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J46" s="173" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="K46" s="173" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="L46" s="173" t="s">
+        <v>577</v>
+      </c>
+      <c r="M46" s="247" t="s">
+        <v>581</v>
+      </c>
+      <c r="N46" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="M46" s="247" t="s">
-        <v>586</v>
-      </c>
-      <c r="N46" s="247" t="s">
-        <v>587</v>
-      </c>
       <c r="O46" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="41.25" thickBot="1">
@@ -8706,10 +8717,10 @@
         <v>64</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D47" s="80" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E47" s="80"/>
       <c r="F47" s="80"/>
@@ -8718,21 +8729,21 @@
         <v>76</v>
       </c>
       <c r="I47" s="80" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="175"/>
       <c r="L47" s="175" t="s">
+        <v>577</v>
+      </c>
+      <c r="M47" s="251" t="s">
+        <v>581</v>
+      </c>
+      <c r="N47" s="251" t="s">
         <v>582</v>
       </c>
-      <c r="M47" s="251" t="s">
-        <v>586</v>
-      </c>
-      <c r="N47" s="251" t="s">
-        <v>587</v>
-      </c>
       <c r="O47" s="175" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="27">
@@ -8746,7 +8757,7 @@
         <v>77</v>
       </c>
       <c r="D48" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E48" s="82"/>
       <c r="F48" s="82"/>
@@ -8755,25 +8766,25 @@
         <v>76</v>
       </c>
       <c r="I48" s="82" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J48" s="173" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="K48" s="173" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="L48" s="173" t="s">
+        <v>577</v>
+      </c>
+      <c r="M48" s="247" t="s">
+        <v>581</v>
+      </c>
+      <c r="N48" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="M48" s="247" t="s">
-        <v>586</v>
-      </c>
-      <c r="N48" s="247" t="s">
-        <v>587</v>
-      </c>
       <c r="O48" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="41.25" thickBot="1">
@@ -8784,10 +8795,10 @@
         <v>66</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D49" s="80" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E49" s="80"/>
       <c r="F49" s="80"/>
@@ -8796,21 +8807,21 @@
         <v>76</v>
       </c>
       <c r="I49" s="80" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="175"/>
       <c r="L49" s="175" t="s">
+        <v>577</v>
+      </c>
+      <c r="M49" s="251" t="s">
+        <v>581</v>
+      </c>
+      <c r="N49" s="251" t="s">
         <v>582</v>
       </c>
-      <c r="M49" s="251" t="s">
-        <v>586</v>
-      </c>
-      <c r="N49" s="251" t="s">
-        <v>587</v>
-      </c>
       <c r="O49" s="175" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="27">
@@ -8824,7 +8835,7 @@
         <v>77</v>
       </c>
       <c r="D50" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E50" s="82"/>
       <c r="F50" s="82"/>
@@ -8833,25 +8844,25 @@
         <v>76</v>
       </c>
       <c r="I50" s="82" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J50" s="173" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="K50" s="173" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="L50" s="173" t="s">
+        <v>577</v>
+      </c>
+      <c r="M50" s="247" t="s">
+        <v>581</v>
+      </c>
+      <c r="N50" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="M50" s="247" t="s">
-        <v>586</v>
-      </c>
-      <c r="N50" s="247" t="s">
-        <v>587</v>
-      </c>
       <c r="O50" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="51" spans="1:15" s="167" customFormat="1" ht="27">
@@ -8862,10 +8873,10 @@
         <v>68</v>
       </c>
       <c r="C51" s="173" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D51" s="82" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E51" s="82"/>
       <c r="F51" s="82"/>
@@ -8874,21 +8885,21 @@
         <v>76</v>
       </c>
       <c r="I51" s="82" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J51" s="168"/>
       <c r="K51" s="173"/>
       <c r="L51" s="173" t="s">
+        <v>577</v>
+      </c>
+      <c r="M51" s="247" t="s">
+        <v>581</v>
+      </c>
+      <c r="N51" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="M51" s="247" t="s">
-        <v>586</v>
-      </c>
-      <c r="N51" s="247" t="s">
-        <v>587</v>
-      </c>
       <c r="O51" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="167" customFormat="1" ht="27">
@@ -8899,10 +8910,10 @@
         <v>68</v>
       </c>
       <c r="C52" s="173" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D52" s="82" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E52" s="82"/>
       <c r="F52" s="82"/>
@@ -8911,21 +8922,21 @@
         <v>76</v>
       </c>
       <c r="I52" s="82" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J52" s="168"/>
       <c r="K52" s="173"/>
       <c r="L52" s="173" t="s">
+        <v>577</v>
+      </c>
+      <c r="M52" s="247" t="s">
+        <v>581</v>
+      </c>
+      <c r="N52" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="M52" s="247" t="s">
-        <v>586</v>
-      </c>
-      <c r="N52" s="247" t="s">
-        <v>587</v>
-      </c>
       <c r="O52" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="27.75" thickBot="1">
@@ -8936,10 +8947,10 @@
         <v>68</v>
       </c>
       <c r="C53" s="175" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D53" s="80" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E53" s="79"/>
       <c r="F53" s="79"/>
@@ -8948,26 +8959,26 @@
         <v>76</v>
       </c>
       <c r="I53" s="80" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="175"/>
       <c r="L53" s="175" t="s">
+        <v>577</v>
+      </c>
+      <c r="M53" s="251" t="s">
+        <v>581</v>
+      </c>
+      <c r="N53" s="251" t="s">
         <v>582</v>
       </c>
-      <c r="M53" s="251" t="s">
-        <v>586</v>
-      </c>
-      <c r="N53" s="251" t="s">
-        <v>587</v>
-      </c>
       <c r="O53" s="175" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="54" spans="1:15" s="1" customFormat="1" ht="27">
       <c r="A54" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>221</v>
@@ -8976,7 +8987,7 @@
         <v>77</v>
       </c>
       <c r="D54" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E54" s="82"/>
       <c r="F54" s="82"/>
@@ -8985,103 +8996,103 @@
         <v>76</v>
       </c>
       <c r="I54" s="82" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J54" s="173" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="K54" s="173" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="L54" s="173" t="s">
+        <v>577</v>
+      </c>
+      <c r="M54" s="247" t="s">
+        <v>581</v>
+      </c>
+      <c r="N54" s="247" t="s">
         <v>582</v>
       </c>
-      <c r="M54" s="247" t="s">
-        <v>586</v>
-      </c>
-      <c r="N54" s="247" t="s">
-        <v>587</v>
-      </c>
       <c r="O54" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="55" spans="1:15" s="1" customFormat="1" ht="27">
       <c r="A55" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>221</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D55" s="261" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>76</v>
       </c>
       <c r="I55" s="261" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="L55" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="M55" s="252" t="s">
+        <v>581</v>
+      </c>
+      <c r="N55" s="252" t="s">
         <v>582</v>
       </c>
-      <c r="M55" s="252" t="s">
-        <v>586</v>
-      </c>
-      <c r="N55" s="252" t="s">
-        <v>587</v>
-      </c>
       <c r="O55" s="1" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="56" spans="1:15" s="1" customFormat="1" ht="27">
       <c r="A56" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>221</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D56" s="261" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>76</v>
       </c>
       <c r="I56" s="261" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="L56" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="M56" s="252" t="s">
+        <v>581</v>
+      </c>
+      <c r="N56" s="252" t="s">
         <v>582</v>
       </c>
-      <c r="M56" s="252" t="s">
-        <v>586</v>
-      </c>
-      <c r="N56" s="252" t="s">
-        <v>587</v>
-      </c>
       <c r="O56" s="1" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="57" spans="1:15" s="1" customFormat="1" ht="27.75" thickBot="1">
       <c r="A57" s="175" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B57" s="175" t="s">
         <v>221</v>
       </c>
       <c r="C57" s="175" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D57" s="259" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E57" s="175"/>
       <c r="F57" s="175"/>
@@ -9090,21 +9101,21 @@
         <v>76</v>
       </c>
       <c r="I57" s="259" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J57" s="175"/>
       <c r="K57" s="175"/>
       <c r="L57" s="175" t="s">
+        <v>577</v>
+      </c>
+      <c r="M57" s="251" t="s">
+        <v>581</v>
+      </c>
+      <c r="N57" s="251" t="s">
         <v>582</v>
       </c>
-      <c r="M57" s="251" t="s">
-        <v>586</v>
-      </c>
-      <c r="N57" s="251" t="s">
-        <v>587</v>
-      </c>
       <c r="O57" s="175" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -9115,7 +9126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -9197,7 +9208,7 @@
       <c r="M3" s="272"/>
       <c r="N3" s="272"/>
       <c r="O3" s="208" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.25" thickBot="1">
@@ -9244,7 +9255,7 @@
         <v>96</v>
       </c>
       <c r="O4" s="210" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.25" thickTop="1">
@@ -9285,7 +9296,7 @@
         <v>209</v>
       </c>
       <c r="O5" s="209" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -9326,7 +9337,7 @@
         <v>182</v>
       </c>
       <c r="O6" s="209" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -9367,7 +9378,7 @@
         <v>212</v>
       </c>
       <c r="O7" s="209" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -9408,7 +9419,7 @@
         <v>212</v>
       </c>
       <c r="O8" s="209" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -9449,7 +9460,7 @@
         <v>104</v>
       </c>
       <c r="O9" s="209" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -9490,7 +9501,7 @@
         <v>216</v>
       </c>
       <c r="O10" s="209" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -9531,7 +9542,7 @@
         <v>209</v>
       </c>
       <c r="O11" s="209" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -9572,7 +9583,7 @@
         <v>216</v>
       </c>
       <c r="O12" s="209" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -9613,7 +9624,7 @@
         <v>216</v>
       </c>
       <c r="O13" s="209" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -9654,7 +9665,7 @@
         <v>209</v>
       </c>
       <c r="O14" s="209" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -9695,7 +9706,7 @@
         <v>216</v>
       </c>
       <c r="O15" s="209" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -9736,7 +9747,7 @@
         <v>216</v>
       </c>
       <c r="O16" s="209" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -9753,7 +9764,7 @@
         <v>164</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21" t="s">
@@ -9777,7 +9788,7 @@
         <v>216</v>
       </c>
       <c r="O17" s="209" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -9818,7 +9829,7 @@
         <v>216</v>
       </c>
       <c r="O18" s="209" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -9859,7 +9870,7 @@
         <v>209</v>
       </c>
       <c r="O19" s="209" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -9900,7 +9911,7 @@
         <v>216</v>
       </c>
       <c r="O20" s="209" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="56" customFormat="1" ht="17.25" thickBot="1">
@@ -9941,7 +9952,7 @@
         <v>216</v>
       </c>
       <c r="O21" s="209" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -10380,7 +10391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
@@ -10412,10 +10423,10 @@
         <v>69</v>
       </c>
       <c r="D1" s="88" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E1" s="88" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F1" s="88" t="s">
         <v>9</v>
@@ -10435,7 +10446,7 @@
         <v>132</v>
       </c>
       <c r="D2" s="94" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E2" s="91"/>
       <c r="F2" s="91"/>
@@ -10452,7 +10463,7 @@
         <v>132</v>
       </c>
       <c r="D3" s="94" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E3" s="91"/>
       <c r="F3" s="91"/>
@@ -10484,7 +10495,7 @@
         <v>132</v>
       </c>
       <c r="D5" s="102" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E5" s="103"/>
       <c r="F5" s="103"/>
@@ -10501,7 +10512,7 @@
         <v>143</v>
       </c>
       <c r="D6" s="97" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E6" s="91"/>
       <c r="F6" s="91"/>
@@ -10518,7 +10529,7 @@
         <v>143</v>
       </c>
       <c r="D7" s="97" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E7" s="91"/>
       <c r="F7" s="91"/>
@@ -10535,7 +10546,7 @@
         <v>143</v>
       </c>
       <c r="D8" s="97" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E8" s="91"/>
       <c r="F8" s="91"/>
@@ -10552,7 +10563,7 @@
         <v>143</v>
       </c>
       <c r="D9" s="97" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E9" s="91"/>
       <c r="F9" s="91"/>
@@ -10569,7 +10580,7 @@
         <v>143</v>
       </c>
       <c r="D10" s="106" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E10" s="103"/>
       <c r="F10" s="103"/>
@@ -10586,7 +10597,7 @@
         <v>146</v>
       </c>
       <c r="D11" s="94" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E11" s="91"/>
       <c r="F11" s="91"/>
@@ -10603,7 +10614,7 @@
         <v>146</v>
       </c>
       <c r="D12" s="94" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E12" s="91"/>
       <c r="F12" s="91"/>
@@ -10620,7 +10631,7 @@
         <v>146</v>
       </c>
       <c r="D13" s="102" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E13" s="103"/>
       <c r="F13" s="103"/>
@@ -10634,7 +10645,7 @@
         <v>271</v>
       </c>
       <c r="C14" s="99" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D14" s="100"/>
       <c r="E14" s="91"/>
@@ -10649,7 +10660,7 @@
         <v>271</v>
       </c>
       <c r="C15" s="108" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D15" s="109"/>
       <c r="E15" s="103"/>
@@ -10664,10 +10675,10 @@
         <v>271</v>
       </c>
       <c r="C16" s="90" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D16" s="94" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E16" s="91"/>
       <c r="F16" s="91"/>
@@ -10681,10 +10692,10 @@
         <v>271</v>
       </c>
       <c r="C17" s="90" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D17" s="94" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E17" s="91"/>
       <c r="F17" s="91"/>
@@ -10698,10 +10709,10 @@
         <v>271</v>
       </c>
       <c r="C18" s="93" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D18" s="102" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E18" s="103"/>
       <c r="F18" s="103"/>
@@ -10715,10 +10726,10 @@
         <v>268</v>
       </c>
       <c r="C19" s="90" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D19" s="94" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E19" s="91"/>
       <c r="F19" s="91"/>
@@ -10732,7 +10743,7 @@
         <v>268</v>
       </c>
       <c r="C20" s="90" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D20" s="94"/>
       <c r="E20" s="91"/>
@@ -10747,10 +10758,10 @@
         <v>268</v>
       </c>
       <c r="C21" s="90" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D21" s="94" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E21" s="91"/>
       <c r="F21" s="91"/>
@@ -10764,10 +10775,10 @@
         <v>268</v>
       </c>
       <c r="C22" s="90" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D22" s="94" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E22" s="91"/>
       <c r="F22" s="91"/>
@@ -10781,7 +10792,7 @@
         <v>268</v>
       </c>
       <c r="C23" s="93" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D23" s="102"/>
       <c r="E23" s="103"/>
@@ -10796,10 +10807,10 @@
         <v>268</v>
       </c>
       <c r="C24" s="90" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D24" s="94" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E24" s="91"/>
       <c r="F24" s="91"/>
@@ -10813,10 +10824,10 @@
         <v>268</v>
       </c>
       <c r="C25" s="90" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D25" s="94" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E25" s="91"/>
       <c r="F25" s="91"/>
@@ -10830,7 +10841,7 @@
         <v>268</v>
       </c>
       <c r="C26" s="93" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D26" s="110"/>
       <c r="E26" s="103"/>
@@ -10848,7 +10859,7 @@
         <v>122</v>
       </c>
       <c r="D27" s="94" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E27" s="91"/>
       <c r="F27" s="91"/>
@@ -10865,7 +10876,7 @@
         <v>122</v>
       </c>
       <c r="D28" s="94" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E28" s="91"/>
       <c r="F28" s="91"/>
@@ -10897,7 +10908,7 @@
         <v>124</v>
       </c>
       <c r="D30" s="94" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E30" s="91"/>
       <c r="F30" s="91"/>
@@ -10956,10 +10967,10 @@
         <v>268</v>
       </c>
       <c r="C34" s="90" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D34" s="94" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E34" s="91"/>
       <c r="F34" s="91"/>
@@ -10973,10 +10984,10 @@
         <v>268</v>
       </c>
       <c r="C35" s="90" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D35" s="94" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E35" s="91"/>
       <c r="F35" s="91"/>
@@ -10990,7 +11001,7 @@
         <v>268</v>
       </c>
       <c r="C36" s="93" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D36" s="102"/>
       <c r="E36" s="103"/>
@@ -11005,10 +11016,10 @@
         <v>268</v>
       </c>
       <c r="C37" s="90" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D37" s="94" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E37" s="91"/>
       <c r="F37" s="91"/>
@@ -11022,7 +11033,7 @@
         <v>268</v>
       </c>
       <c r="C38" s="93" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D38" s="102"/>
       <c r="E38" s="103"/>
@@ -11040,7 +11051,7 @@
         <v>106</v>
       </c>
       <c r="D39" s="94" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E39" s="91"/>
       <c r="F39" s="91"/>
@@ -11057,7 +11068,7 @@
         <v>106</v>
       </c>
       <c r="D40" s="94" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E40" s="91"/>
       <c r="F40" s="91"/>
@@ -11089,7 +11100,7 @@
         <v>114</v>
       </c>
       <c r="D42" s="94" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E42" s="91"/>
       <c r="F42" s="91"/>
@@ -11121,7 +11132,7 @@
         <v>114</v>
       </c>
       <c r="D44" s="102" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E44" s="103"/>
       <c r="F44" s="103"/>
@@ -11138,7 +11149,7 @@
         <v>126</v>
       </c>
       <c r="D45" s="94" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E45" s="91"/>
       <c r="F45" s="91"/>
@@ -11155,7 +11166,7 @@
         <v>126</v>
       </c>
       <c r="D46" s="102" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E46" s="103"/>
       <c r="F46" s="103"/>
@@ -11169,10 +11180,10 @@
         <v>268</v>
       </c>
       <c r="C47" s="90" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D47" s="94" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E47" s="91"/>
       <c r="F47" s="91"/>
@@ -11186,10 +11197,10 @@
         <v>268</v>
       </c>
       <c r="C48" s="90" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D48" s="94" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E48" s="91"/>
       <c r="F48" s="91"/>
@@ -11203,10 +11214,10 @@
         <v>268</v>
       </c>
       <c r="C49" s="93" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D49" s="102" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E49" s="103"/>
       <c r="F49" s="103"/>
@@ -11220,10 +11231,10 @@
         <v>268</v>
       </c>
       <c r="C50" s="112" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D50" s="113" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E50" s="103"/>
       <c r="F50" s="103"/>
@@ -11237,10 +11248,10 @@
         <v>268</v>
       </c>
       <c r="C51" s="112" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D51" s="113" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E51" s="103"/>
       <c r="F51" s="103"/>
@@ -11251,7 +11262,7 @@
         <v>186</v>
       </c>
       <c r="B52" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C52" s="90" t="s">
         <v>156</v>
@@ -11266,7 +11277,7 @@
         <v>186</v>
       </c>
       <c r="B53" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C53" s="90" t="s">
         <v>156</v>
@@ -11281,7 +11292,7 @@
         <v>186</v>
       </c>
       <c r="B54" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C54" s="90" t="s">
         <v>156</v>
@@ -11296,7 +11307,7 @@
         <v>186</v>
       </c>
       <c r="B55" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C55" s="90" t="s">
         <v>156</v>
@@ -11311,7 +11322,7 @@
         <v>186</v>
       </c>
       <c r="B56" s="92" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C56" s="93" t="s">
         <v>156</v>
@@ -11326,10 +11337,10 @@
         <v>186</v>
       </c>
       <c r="B57" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C57" s="90" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D57" s="101"/>
       <c r="E57" s="91"/>
@@ -11341,10 +11352,10 @@
         <v>186</v>
       </c>
       <c r="B58" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C58" s="90" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D58" s="101"/>
       <c r="E58" s="91"/>
@@ -11356,10 +11367,10 @@
         <v>186</v>
       </c>
       <c r="B59" s="92" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C59" s="93" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D59" s="110"/>
       <c r="E59" s="103"/>
@@ -11371,13 +11382,13 @@
         <v>186</v>
       </c>
       <c r="B60" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C60" s="90" t="s">
         <v>158</v>
       </c>
       <c r="D60" s="94" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E60" s="91"/>
       <c r="F60" s="91"/>
@@ -11388,13 +11399,13 @@
         <v>186</v>
       </c>
       <c r="B61" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C61" s="90" t="s">
         <v>158</v>
       </c>
       <c r="D61" s="94" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E61" s="91"/>
       <c r="F61" s="91"/>
@@ -11405,13 +11416,13 @@
         <v>186</v>
       </c>
       <c r="B62" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C62" s="90" t="s">
         <v>158</v>
       </c>
       <c r="D62" s="94" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E62" s="91"/>
       <c r="F62" s="91"/>
@@ -11422,7 +11433,7 @@
         <v>186</v>
       </c>
       <c r="B63" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C63" s="90" t="s">
         <v>158</v>
@@ -11437,13 +11448,13 @@
         <v>186</v>
       </c>
       <c r="B64" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C64" s="90" t="s">
         <v>158</v>
       </c>
       <c r="D64" s="94" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E64" s="91"/>
       <c r="F64" s="91"/>
@@ -11454,13 +11465,13 @@
         <v>186</v>
       </c>
       <c r="B65" s="92" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C65" s="93" t="s">
         <v>158</v>
       </c>
       <c r="D65" s="102" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E65" s="103"/>
       <c r="F65" s="103"/>
@@ -11471,13 +11482,13 @@
         <v>186</v>
       </c>
       <c r="B66" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C66" s="90" t="s">
         <v>154</v>
       </c>
       <c r="D66" s="94" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E66" s="91"/>
       <c r="F66" s="91"/>
@@ -11488,13 +11499,13 @@
         <v>186</v>
       </c>
       <c r="B67" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C67" s="90" t="s">
         <v>154</v>
       </c>
       <c r="D67" s="94" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E67" s="91"/>
       <c r="F67" s="91"/>
@@ -11505,7 +11516,7 @@
         <v>186</v>
       </c>
       <c r="B68" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C68" s="90" t="s">
         <v>154</v>
@@ -11520,7 +11531,7 @@
         <v>186</v>
       </c>
       <c r="B69" s="92" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C69" s="93" t="s">
         <v>154</v>
@@ -11535,7 +11546,7 @@
         <v>186</v>
       </c>
       <c r="B70" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C70" s="90" t="s">
         <v>223</v>
@@ -11550,7 +11561,7 @@
         <v>186</v>
       </c>
       <c r="B71" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C71" s="90" t="s">
         <v>223</v>
@@ -11565,7 +11576,7 @@
         <v>186</v>
       </c>
       <c r="B72" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C72" s="90" t="s">
         <v>223</v>
@@ -11580,7 +11591,7 @@
         <v>186</v>
       </c>
       <c r="B73" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C73" s="90" t="s">
         <v>223</v>
@@ -11595,7 +11606,7 @@
         <v>186</v>
       </c>
       <c r="B74" s="92" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C74" s="93" t="s">
         <v>223</v>
@@ -11619,7 +11630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
@@ -11658,40 +11669,40 @@
         <v>70</v>
       </c>
       <c r="D1" s="229" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E1" s="229" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F1" s="229" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="G1" s="229" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="H1" s="229" t="s">
+        <v>568</v>
+      </c>
+      <c r="I1" s="229" t="s">
+        <v>569</v>
+      </c>
+      <c r="J1" s="85" t="s">
+        <v>294</v>
+      </c>
+      <c r="K1" s="85" t="s">
+        <v>586</v>
+      </c>
+      <c r="L1" s="85" t="s">
         <v>573</v>
       </c>
-      <c r="I1" s="229" t="s">
+      <c r="M1" s="230" t="s">
         <v>574</v>
       </c>
-      <c r="J1" s="85" t="s">
-        <v>297</v>
-      </c>
-      <c r="K1" s="85" t="s">
-        <v>591</v>
-      </c>
-      <c r="L1" s="85" t="s">
-        <v>578</v>
-      </c>
-      <c r="M1" s="230" t="s">
-        <v>579</v>
-      </c>
       <c r="N1" s="230" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="O1" s="257" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="225" customFormat="1" ht="27.75" thickTop="1">
@@ -11705,7 +11716,7 @@
         <v>77</v>
       </c>
       <c r="D2" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E2" s="82"/>
       <c r="F2" s="82"/>
@@ -11714,25 +11725,25 @@
         <v>76</v>
       </c>
       <c r="I2" s="82" t="s">
+        <v>572</v>
+      </c>
+      <c r="J2" s="173" t="s">
+        <v>587</v>
+      </c>
+      <c r="K2" s="173" t="s">
+        <v>588</v>
+      </c>
+      <c r="L2" s="173" t="s">
         <v>577</v>
       </c>
-      <c r="J2" s="173" t="s">
-        <v>592</v>
-      </c>
-      <c r="K2" s="173" t="s">
-        <v>593</v>
-      </c>
-      <c r="L2" s="173" t="s">
+      <c r="M2" s="223" t="s">
+        <v>581</v>
+      </c>
+      <c r="N2" s="223" t="s">
         <v>582</v>
       </c>
-      <c r="M2" s="223" t="s">
-        <v>586</v>
-      </c>
-      <c r="N2" s="223" t="s">
-        <v>587</v>
-      </c>
       <c r="O2" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -11743,7 +11754,7 @@
         <v>132</v>
       </c>
       <c r="C3" s="94" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D3" s="94"/>
       <c r="E3" s="94"/>
@@ -11752,16 +11763,16 @@
       <c r="H3" s="94"/>
       <c r="I3" s="94"/>
       <c r="J3" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K3" s="94"/>
       <c r="L3" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M3" s="231"/>
       <c r="N3" s="231"/>
       <c r="O3" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="P3" s="226"/>
       <c r="Q3" s="226"/>
@@ -11774,7 +11785,7 @@
         <v>132</v>
       </c>
       <c r="C4" s="94" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D4" s="94"/>
       <c r="E4" s="94"/>
@@ -11783,16 +11794,16 @@
       <c r="H4" s="94"/>
       <c r="I4" s="94"/>
       <c r="J4" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K4" s="94"/>
       <c r="L4" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M4" s="231"/>
       <c r="N4" s="231"/>
       <c r="O4" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="P4" s="226"/>
       <c r="Q4" s="226"/>
@@ -11812,16 +11823,16 @@
       <c r="H5" s="94"/>
       <c r="I5" s="94"/>
       <c r="J5" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K5" s="94"/>
       <c r="L5" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M5" s="231"/>
       <c r="N5" s="231"/>
       <c r="O5" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="17.25" thickBot="1">
@@ -11832,7 +11843,7 @@
         <v>132</v>
       </c>
       <c r="C6" s="102" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D6" s="102"/>
       <c r="E6" s="102"/>
@@ -11841,16 +11852,16 @@
       <c r="H6" s="102"/>
       <c r="I6" s="102"/>
       <c r="J6" s="102" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K6" s="102"/>
       <c r="L6" s="102" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M6" s="232"/>
       <c r="N6" s="232"/>
       <c r="O6" s="102" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="167" customFormat="1" ht="27">
@@ -11864,7 +11875,7 @@
         <v>77</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E7" s="82"/>
       <c r="F7" s="82"/>
@@ -11873,25 +11884,25 @@
         <v>76</v>
       </c>
       <c r="I7" s="82" t="s">
+        <v>572</v>
+      </c>
+      <c r="J7" s="173" t="s">
+        <v>587</v>
+      </c>
+      <c r="K7" s="173" t="s">
+        <v>588</v>
+      </c>
+      <c r="L7" s="173" t="s">
         <v>577</v>
       </c>
-      <c r="J7" s="173" t="s">
-        <v>592</v>
-      </c>
-      <c r="K7" s="173" t="s">
-        <v>593</v>
-      </c>
-      <c r="L7" s="173" t="s">
+      <c r="M7" s="223" t="s">
+        <v>581</v>
+      </c>
+      <c r="N7" s="223" t="s">
         <v>582</v>
       </c>
-      <c r="M7" s="223" t="s">
-        <v>586</v>
-      </c>
-      <c r="N7" s="223" t="s">
-        <v>587</v>
-      </c>
       <c r="O7" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -11902,7 +11913,7 @@
         <v>143</v>
       </c>
       <c r="C8" s="97" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D8" s="97"/>
       <c r="E8" s="97"/>
@@ -11911,16 +11922,16 @@
       <c r="H8" s="97"/>
       <c r="I8" s="97"/>
       <c r="J8" s="97" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K8" s="97"/>
       <c r="L8" s="97" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M8" s="233"/>
       <c r="N8" s="233"/>
       <c r="O8" s="97" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -11931,7 +11942,7 @@
         <v>143</v>
       </c>
       <c r="C9" s="97" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D9" s="97"/>
       <c r="E9" s="97"/>
@@ -11940,16 +11951,16 @@
       <c r="H9" s="97"/>
       <c r="I9" s="97"/>
       <c r="J9" s="97" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K9" s="97"/>
       <c r="L9" s="97" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M9" s="233"/>
       <c r="N9" s="233"/>
       <c r="O9" s="97" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -11960,7 +11971,7 @@
         <v>143</v>
       </c>
       <c r="C10" s="97" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D10" s="97"/>
       <c r="E10" s="97"/>
@@ -11969,16 +11980,16 @@
       <c r="H10" s="97"/>
       <c r="I10" s="97"/>
       <c r="J10" s="97" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K10" s="97"/>
       <c r="L10" s="97" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M10" s="233"/>
       <c r="N10" s="233"/>
       <c r="O10" s="97" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -11989,7 +12000,7 @@
         <v>143</v>
       </c>
       <c r="C11" s="97" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D11" s="97"/>
       <c r="E11" s="97"/>
@@ -11998,16 +12009,16 @@
       <c r="H11" s="97"/>
       <c r="I11" s="97"/>
       <c r="J11" s="97" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K11" s="97"/>
       <c r="L11" s="97" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M11" s="233"/>
       <c r="N11" s="233"/>
       <c r="O11" s="97" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="17.25" thickBot="1">
@@ -12018,7 +12029,7 @@
         <v>143</v>
       </c>
       <c r="C12" s="106" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D12" s="106"/>
       <c r="E12" s="106"/>
@@ -12027,16 +12038,16 @@
       <c r="H12" s="106"/>
       <c r="I12" s="106"/>
       <c r="J12" s="106" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K12" s="106"/>
       <c r="L12" s="106" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M12" s="234"/>
       <c r="N12" s="234"/>
       <c r="O12" s="106" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="167" customFormat="1" ht="27">
@@ -12050,7 +12061,7 @@
         <v>77</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E13" s="82"/>
       <c r="F13" s="82"/>
@@ -12059,25 +12070,25 @@
         <v>76</v>
       </c>
       <c r="I13" s="82" t="s">
+        <v>572</v>
+      </c>
+      <c r="J13" s="173" t="s">
+        <v>587</v>
+      </c>
+      <c r="K13" s="173" t="s">
+        <v>588</v>
+      </c>
+      <c r="L13" s="173" t="s">
         <v>577</v>
       </c>
-      <c r="J13" s="173" t="s">
-        <v>592</v>
-      </c>
-      <c r="K13" s="173" t="s">
-        <v>593</v>
-      </c>
-      <c r="L13" s="173" t="s">
+      <c r="M13" s="223" t="s">
+        <v>581</v>
+      </c>
+      <c r="N13" s="223" t="s">
         <v>582</v>
       </c>
-      <c r="M13" s="223" t="s">
-        <v>586</v>
-      </c>
-      <c r="N13" s="223" t="s">
-        <v>587</v>
-      </c>
       <c r="O13" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -12088,7 +12099,7 @@
         <v>146</v>
       </c>
       <c r="C14" s="94" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D14" s="94"/>
       <c r="E14" s="94"/>
@@ -12097,16 +12108,16 @@
       <c r="H14" s="94"/>
       <c r="I14" s="94"/>
       <c r="J14" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K14" s="94"/>
       <c r="L14" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M14" s="231"/>
       <c r="N14" s="231"/>
       <c r="O14" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -12117,7 +12128,7 @@
         <v>146</v>
       </c>
       <c r="C15" s="94" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D15" s="94"/>
       <c r="E15" s="94"/>
@@ -12126,16 +12137,16 @@
       <c r="H15" s="94"/>
       <c r="I15" s="94"/>
       <c r="J15" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K15" s="94"/>
       <c r="L15" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M15" s="231"/>
       <c r="N15" s="231"/>
       <c r="O15" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="17.25" thickBot="1">
@@ -12146,7 +12157,7 @@
         <v>146</v>
       </c>
       <c r="C16" s="102" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D16" s="102"/>
       <c r="E16" s="102"/>
@@ -12155,16 +12166,16 @@
       <c r="H16" s="102"/>
       <c r="I16" s="102"/>
       <c r="J16" s="102" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K16" s="102"/>
       <c r="L16" s="102" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M16" s="232"/>
       <c r="N16" s="232"/>
       <c r="O16" s="102" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="27.75" thickBot="1">
@@ -12172,13 +12183,13 @@
         <v>271</v>
       </c>
       <c r="B17" s="239" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C17" s="240" t="s">
         <v>77</v>
       </c>
       <c r="D17" s="241" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E17" s="241"/>
       <c r="F17" s="241"/>
@@ -12187,25 +12198,25 @@
         <v>76</v>
       </c>
       <c r="I17" s="241" t="s">
+        <v>572</v>
+      </c>
+      <c r="J17" s="240" t="s">
+        <v>587</v>
+      </c>
+      <c r="K17" s="240" t="s">
+        <v>588</v>
+      </c>
+      <c r="L17" s="240" t="s">
         <v>577</v>
       </c>
-      <c r="J17" s="240" t="s">
-        <v>592</v>
-      </c>
-      <c r="K17" s="240" t="s">
-        <v>593</v>
-      </c>
-      <c r="L17" s="240" t="s">
+      <c r="M17" s="242" t="s">
+        <v>581</v>
+      </c>
+      <c r="N17" s="242" t="s">
         <v>582</v>
       </c>
-      <c r="M17" s="242" t="s">
-        <v>586</v>
-      </c>
-      <c r="N17" s="242" t="s">
-        <v>587</v>
-      </c>
       <c r="O17" s="240" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="167" customFormat="1" ht="27">
@@ -12213,13 +12224,13 @@
         <v>271</v>
       </c>
       <c r="B18" s="90" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C18" s="173" t="s">
         <v>77</v>
       </c>
       <c r="D18" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E18" s="82"/>
       <c r="F18" s="82"/>
@@ -12228,25 +12239,25 @@
         <v>76</v>
       </c>
       <c r="I18" s="82" t="s">
+        <v>572</v>
+      </c>
+      <c r="J18" s="173" t="s">
+        <v>587</v>
+      </c>
+      <c r="K18" s="173" t="s">
+        <v>588</v>
+      </c>
+      <c r="L18" s="173" t="s">
         <v>577</v>
       </c>
-      <c r="J18" s="173" t="s">
-        <v>592</v>
-      </c>
-      <c r="K18" s="173" t="s">
-        <v>593</v>
-      </c>
-      <c r="L18" s="173" t="s">
+      <c r="M18" s="223" t="s">
+        <v>581</v>
+      </c>
+      <c r="N18" s="223" t="s">
         <v>582</v>
       </c>
-      <c r="M18" s="223" t="s">
-        <v>586</v>
-      </c>
-      <c r="N18" s="223" t="s">
-        <v>587</v>
-      </c>
       <c r="O18" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -12254,10 +12265,10 @@
         <v>271</v>
       </c>
       <c r="B19" s="90" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C19" s="94" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D19" s="94"/>
       <c r="E19" s="94"/>
@@ -12266,16 +12277,16 @@
       <c r="H19" s="94"/>
       <c r="I19" s="94"/>
       <c r="J19" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K19" s="94"/>
       <c r="L19" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M19" s="231"/>
       <c r="N19" s="231"/>
       <c r="O19" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -12283,10 +12294,10 @@
         <v>271</v>
       </c>
       <c r="B20" s="90" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C20" s="94" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D20" s="94"/>
       <c r="E20" s="94"/>
@@ -12295,16 +12306,16 @@
       <c r="H20" s="94"/>
       <c r="I20" s="94"/>
       <c r="J20" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K20" s="94"/>
       <c r="L20" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M20" s="231"/>
       <c r="N20" s="231"/>
       <c r="O20" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="17.25" thickBot="1">
@@ -12312,10 +12323,10 @@
         <v>271</v>
       </c>
       <c r="B21" s="93" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C21" s="102" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D21" s="102"/>
       <c r="E21" s="102"/>
@@ -12324,16 +12335,16 @@
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="J21" s="102" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K21" s="102"/>
       <c r="L21" s="102" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M21" s="232"/>
       <c r="N21" s="232"/>
       <c r="O21" s="102" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="167" customFormat="1" ht="27">
@@ -12341,13 +12352,13 @@
         <v>271</v>
       </c>
       <c r="B22" s="90" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C22" s="173" t="s">
         <v>77</v>
       </c>
       <c r="D22" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E22" s="82"/>
       <c r="F22" s="82"/>
@@ -12356,25 +12367,25 @@
         <v>76</v>
       </c>
       <c r="I22" s="82" t="s">
+        <v>572</v>
+      </c>
+      <c r="J22" s="173" t="s">
+        <v>587</v>
+      </c>
+      <c r="K22" s="173" t="s">
+        <v>588</v>
+      </c>
+      <c r="L22" s="173" t="s">
         <v>577</v>
       </c>
-      <c r="J22" s="173" t="s">
-        <v>592</v>
-      </c>
-      <c r="K22" s="173" t="s">
-        <v>593</v>
-      </c>
-      <c r="L22" s="173" t="s">
+      <c r="M22" s="223" t="s">
+        <v>581</v>
+      </c>
+      <c r="N22" s="223" t="s">
         <v>582</v>
       </c>
-      <c r="M22" s="223" t="s">
-        <v>586</v>
-      </c>
-      <c r="N22" s="223" t="s">
-        <v>587</v>
-      </c>
       <c r="O22" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -12382,7 +12393,7 @@
         <v>271</v>
       </c>
       <c r="B23" s="90" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C23" s="101"/>
       <c r="D23" s="101"/>
@@ -12392,16 +12403,16 @@
       <c r="H23" s="101"/>
       <c r="I23" s="101"/>
       <c r="J23" s="101" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K23" s="101"/>
       <c r="L23" s="101" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M23" s="235"/>
       <c r="N23" s="235"/>
       <c r="O23" s="101" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -12409,7 +12420,7 @@
         <v>271</v>
       </c>
       <c r="B24" s="90" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C24" s="101"/>
       <c r="D24" s="101"/>
@@ -12419,16 +12430,16 @@
       <c r="H24" s="101"/>
       <c r="I24" s="101"/>
       <c r="J24" s="101" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K24" s="101"/>
       <c r="L24" s="101" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M24" s="235"/>
       <c r="N24" s="235"/>
       <c r="O24" s="101" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -12436,7 +12447,7 @@
         <v>271</v>
       </c>
       <c r="B25" s="90" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C25" s="101"/>
       <c r="D25" s="101"/>
@@ -12446,16 +12457,16 @@
       <c r="H25" s="101"/>
       <c r="I25" s="101"/>
       <c r="J25" s="101" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K25" s="101"/>
       <c r="L25" s="101" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M25" s="235"/>
       <c r="N25" s="235"/>
       <c r="O25" s="101" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -12463,7 +12474,7 @@
         <v>271</v>
       </c>
       <c r="B26" s="90" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C26" s="101"/>
       <c r="D26" s="101"/>
@@ -12473,16 +12484,16 @@
       <c r="H26" s="101"/>
       <c r="I26" s="101"/>
       <c r="J26" s="101" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K26" s="101"/>
       <c r="L26" s="101" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M26" s="235"/>
       <c r="N26" s="235"/>
       <c r="O26" s="101" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -12490,7 +12501,7 @@
         <v>271</v>
       </c>
       <c r="B27" s="90" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C27" s="101"/>
       <c r="D27" s="101"/>
@@ -12500,16 +12511,16 @@
       <c r="H27" s="101"/>
       <c r="I27" s="101"/>
       <c r="J27" s="101" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K27" s="101"/>
       <c r="L27" s="101" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M27" s="235"/>
       <c r="N27" s="235"/>
       <c r="O27" s="101" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="17.25" thickBot="1">
@@ -12517,7 +12528,7 @@
         <v>271</v>
       </c>
       <c r="B28" s="93" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C28" s="110"/>
       <c r="D28" s="110"/>
@@ -12527,16 +12538,16 @@
       <c r="H28" s="110"/>
       <c r="I28" s="110"/>
       <c r="J28" s="110" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K28" s="110"/>
       <c r="L28" s="110" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M28" s="236"/>
       <c r="N28" s="236"/>
       <c r="O28" s="110" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="167" customFormat="1" ht="27">
@@ -12550,7 +12561,7 @@
         <v>77</v>
       </c>
       <c r="D29" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
@@ -12559,25 +12570,25 @@
         <v>76</v>
       </c>
       <c r="I29" s="82" t="s">
+        <v>572</v>
+      </c>
+      <c r="J29" s="173" t="s">
+        <v>587</v>
+      </c>
+      <c r="K29" s="173" t="s">
+        <v>588</v>
+      </c>
+      <c r="L29" s="173" t="s">
         <v>577</v>
       </c>
-      <c r="J29" s="173" t="s">
-        <v>592</v>
-      </c>
-      <c r="K29" s="173" t="s">
-        <v>593</v>
-      </c>
-      <c r="L29" s="173" t="s">
+      <c r="M29" s="223" t="s">
+        <v>581</v>
+      </c>
+      <c r="N29" s="223" t="s">
         <v>582</v>
       </c>
-      <c r="M29" s="223" t="s">
-        <v>586</v>
-      </c>
-      <c r="N29" s="223" t="s">
-        <v>587</v>
-      </c>
       <c r="O29" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -12595,16 +12606,16 @@
       <c r="H30" s="101"/>
       <c r="I30" s="101"/>
       <c r="J30" s="101" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K30" s="101"/>
       <c r="L30" s="101" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M30" s="235"/>
       <c r="N30" s="235"/>
       <c r="O30" s="101" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -12622,16 +12633,16 @@
       <c r="H31" s="101"/>
       <c r="I31" s="101"/>
       <c r="J31" s="101" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K31" s="101"/>
       <c r="L31" s="101" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M31" s="235"/>
       <c r="N31" s="235"/>
       <c r="O31" s="101" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="17.25" thickBot="1">
@@ -12649,16 +12660,16 @@
       <c r="H32" s="110"/>
       <c r="I32" s="110"/>
       <c r="J32" s="110" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K32" s="110"/>
       <c r="L32" s="110" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M32" s="236"/>
       <c r="N32" s="236"/>
       <c r="O32" s="110" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="167" customFormat="1" ht="27">
@@ -12666,13 +12677,13 @@
         <v>268</v>
       </c>
       <c r="B33" s="90" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C33" s="173" t="s">
         <v>77</v>
       </c>
       <c r="D33" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E33" s="82"/>
       <c r="F33" s="82"/>
@@ -12681,25 +12692,25 @@
         <v>76</v>
       </c>
       <c r="I33" s="82" t="s">
+        <v>572</v>
+      </c>
+      <c r="J33" s="173" t="s">
+        <v>587</v>
+      </c>
+      <c r="K33" s="173" t="s">
+        <v>588</v>
+      </c>
+      <c r="L33" s="173" t="s">
         <v>577</v>
       </c>
-      <c r="J33" s="173" t="s">
-        <v>592</v>
-      </c>
-      <c r="K33" s="173" t="s">
-        <v>593</v>
-      </c>
-      <c r="L33" s="173" t="s">
+      <c r="M33" s="223" t="s">
+        <v>581</v>
+      </c>
+      <c r="N33" s="223" t="s">
         <v>582</v>
       </c>
-      <c r="M33" s="223" t="s">
-        <v>586</v>
-      </c>
-      <c r="N33" s="223" t="s">
-        <v>587</v>
-      </c>
       <c r="O33" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -12707,10 +12718,10 @@
         <v>268</v>
       </c>
       <c r="B34" s="90" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C34" s="94" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D34" s="94"/>
       <c r="E34" s="94"/>
@@ -12719,16 +12730,16 @@
       <c r="H34" s="94"/>
       <c r="I34" s="94"/>
       <c r="J34" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K34" s="94"/>
       <c r="L34" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M34" s="231"/>
       <c r="N34" s="231"/>
       <c r="O34" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -12736,7 +12747,7 @@
         <v>268</v>
       </c>
       <c r="B35" s="90" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C35" s="94"/>
       <c r="D35" s="94"/>
@@ -12746,16 +12757,16 @@
       <c r="H35" s="94"/>
       <c r="I35" s="94"/>
       <c r="J35" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K35" s="94"/>
       <c r="L35" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M35" s="231"/>
       <c r="N35" s="231"/>
       <c r="O35" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -12763,10 +12774,10 @@
         <v>268</v>
       </c>
       <c r="B36" s="90" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C36" s="94" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D36" s="94"/>
       <c r="E36" s="94"/>
@@ -12775,16 +12786,16 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
       <c r="J36" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K36" s="94"/>
       <c r="L36" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M36" s="231"/>
       <c r="N36" s="231"/>
       <c r="O36" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -12792,10 +12803,10 @@
         <v>268</v>
       </c>
       <c r="B37" s="90" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C37" s="94" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D37" s="94"/>
       <c r="E37" s="94"/>
@@ -12804,16 +12815,16 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
       <c r="J37" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K37" s="94"/>
       <c r="L37" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M37" s="231"/>
       <c r="N37" s="231"/>
       <c r="O37" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="17.25" thickBot="1">
@@ -12821,7 +12832,7 @@
         <v>268</v>
       </c>
       <c r="B38" s="93" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C38" s="102"/>
       <c r="D38" s="102"/>
@@ -12831,16 +12842,16 @@
       <c r="H38" s="102"/>
       <c r="I38" s="102"/>
       <c r="J38" s="102" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K38" s="102"/>
       <c r="L38" s="102" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M38" s="232"/>
       <c r="N38" s="232"/>
       <c r="O38" s="102" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="167" customFormat="1" ht="27">
@@ -12848,13 +12859,13 @@
         <v>268</v>
       </c>
       <c r="B39" s="90" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C39" s="173" t="s">
         <v>77</v>
       </c>
       <c r="D39" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E39" s="82"/>
       <c r="F39" s="82"/>
@@ -12863,25 +12874,25 @@
         <v>76</v>
       </c>
       <c r="I39" s="82" t="s">
+        <v>572</v>
+      </c>
+      <c r="J39" s="173" t="s">
+        <v>587</v>
+      </c>
+      <c r="K39" s="173" t="s">
+        <v>588</v>
+      </c>
+      <c r="L39" s="173" t="s">
         <v>577</v>
       </c>
-      <c r="J39" s="173" t="s">
-        <v>592</v>
-      </c>
-      <c r="K39" s="173" t="s">
-        <v>593</v>
-      </c>
-      <c r="L39" s="173" t="s">
+      <c r="M39" s="223" t="s">
+        <v>581</v>
+      </c>
+      <c r="N39" s="223" t="s">
         <v>582</v>
       </c>
-      <c r="M39" s="223" t="s">
-        <v>586</v>
-      </c>
-      <c r="N39" s="223" t="s">
-        <v>587</v>
-      </c>
       <c r="O39" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -12889,10 +12900,10 @@
         <v>268</v>
       </c>
       <c r="B40" s="90" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C40" s="94" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D40" s="94"/>
       <c r="E40" s="94"/>
@@ -12901,16 +12912,16 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
       <c r="J40" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K40" s="94"/>
       <c r="L40" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M40" s="231"/>
       <c r="N40" s="231"/>
       <c r="O40" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -12918,10 +12929,10 @@
         <v>268</v>
       </c>
       <c r="B41" s="90" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C41" s="94" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D41" s="94"/>
       <c r="E41" s="94"/>
@@ -12930,16 +12941,16 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
       <c r="J41" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K41" s="94"/>
       <c r="L41" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M41" s="231"/>
       <c r="N41" s="231"/>
       <c r="O41" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="17.25" thickBot="1">
@@ -12947,7 +12958,7 @@
         <v>268</v>
       </c>
       <c r="B42" s="93" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C42" s="110"/>
       <c r="D42" s="110"/>
@@ -12957,16 +12968,16 @@
       <c r="H42" s="110"/>
       <c r="I42" s="110"/>
       <c r="J42" s="110" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K42" s="110"/>
       <c r="L42" s="110" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M42" s="236"/>
       <c r="N42" s="236"/>
       <c r="O42" s="110" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="167" customFormat="1" ht="27">
@@ -12980,7 +12991,7 @@
         <v>77</v>
       </c>
       <c r="D43" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E43" s="82"/>
       <c r="F43" s="82"/>
@@ -12989,25 +13000,25 @@
         <v>76</v>
       </c>
       <c r="I43" s="82" t="s">
+        <v>572</v>
+      </c>
+      <c r="J43" s="173" t="s">
+        <v>587</v>
+      </c>
+      <c r="K43" s="173" t="s">
+        <v>588</v>
+      </c>
+      <c r="L43" s="173" t="s">
         <v>577</v>
       </c>
-      <c r="J43" s="173" t="s">
-        <v>592</v>
-      </c>
-      <c r="K43" s="173" t="s">
-        <v>593</v>
-      </c>
-      <c r="L43" s="173" t="s">
+      <c r="M43" s="223" t="s">
+        <v>581</v>
+      </c>
+      <c r="N43" s="223" t="s">
         <v>582</v>
       </c>
-      <c r="M43" s="223" t="s">
-        <v>586</v>
-      </c>
-      <c r="N43" s="223" t="s">
-        <v>587</v>
-      </c>
       <c r="O43" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -13018,7 +13029,7 @@
         <v>122</v>
       </c>
       <c r="C44" s="94" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D44" s="94"/>
       <c r="E44" s="94"/>
@@ -13027,16 +13038,16 @@
       <c r="H44" s="94"/>
       <c r="I44" s="94"/>
       <c r="J44" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K44" s="94"/>
       <c r="L44" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M44" s="231"/>
       <c r="N44" s="231"/>
       <c r="O44" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -13047,7 +13058,7 @@
         <v>122</v>
       </c>
       <c r="C45" s="94" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D45" s="94"/>
       <c r="E45" s="94"/>
@@ -13056,16 +13067,16 @@
       <c r="H45" s="94"/>
       <c r="I45" s="94"/>
       <c r="J45" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K45" s="94"/>
       <c r="L45" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M45" s="231"/>
       <c r="N45" s="231"/>
       <c r="O45" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="17.25" thickBot="1">
@@ -13083,16 +13094,16 @@
       <c r="H46" s="102"/>
       <c r="I46" s="102"/>
       <c r="J46" s="102" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K46" s="102"/>
       <c r="L46" s="102" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M46" s="232"/>
       <c r="N46" s="232"/>
       <c r="O46" s="102" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="47" spans="1:15" s="167" customFormat="1" ht="27">
@@ -13106,7 +13117,7 @@
         <v>77</v>
       </c>
       <c r="D47" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E47" s="82"/>
       <c r="F47" s="82"/>
@@ -13115,25 +13126,25 @@
         <v>76</v>
       </c>
       <c r="I47" s="82" t="s">
+        <v>572</v>
+      </c>
+      <c r="J47" s="173" t="s">
+        <v>587</v>
+      </c>
+      <c r="K47" s="173" t="s">
+        <v>588</v>
+      </c>
+      <c r="L47" s="173" t="s">
         <v>577</v>
       </c>
-      <c r="J47" s="173" t="s">
-        <v>592</v>
-      </c>
-      <c r="K47" s="173" t="s">
-        <v>593</v>
-      </c>
-      <c r="L47" s="173" t="s">
+      <c r="M47" s="223" t="s">
+        <v>581</v>
+      </c>
+      <c r="N47" s="223" t="s">
         <v>582</v>
       </c>
-      <c r="M47" s="223" t="s">
-        <v>586</v>
-      </c>
-      <c r="N47" s="223" t="s">
-        <v>587</v>
-      </c>
       <c r="O47" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -13144,7 +13155,7 @@
         <v>124</v>
       </c>
       <c r="C48" s="94" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D48" s="94"/>
       <c r="E48" s="94"/>
@@ -13153,16 +13164,16 @@
       <c r="H48" s="94"/>
       <c r="I48" s="94"/>
       <c r="J48" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K48" s="94"/>
       <c r="L48" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M48" s="231"/>
       <c r="N48" s="231"/>
       <c r="O48" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -13180,16 +13191,16 @@
       <c r="H49" s="94"/>
       <c r="I49" s="94"/>
       <c r="J49" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K49" s="94"/>
       <c r="L49" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M49" s="231"/>
       <c r="N49" s="231"/>
       <c r="O49" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -13207,16 +13218,16 @@
       <c r="H50" s="94"/>
       <c r="I50" s="94"/>
       <c r="J50" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K50" s="94"/>
       <c r="L50" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M50" s="231"/>
       <c r="N50" s="231"/>
       <c r="O50" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="17.25" thickBot="1">
@@ -13234,16 +13245,16 @@
       <c r="H51" s="102"/>
       <c r="I51" s="102"/>
       <c r="J51" s="102" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K51" s="102"/>
       <c r="L51" s="102" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M51" s="232"/>
       <c r="N51" s="232"/>
       <c r="O51" s="102" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="167" customFormat="1" ht="27">
@@ -13251,13 +13262,13 @@
         <v>268</v>
       </c>
       <c r="B52" s="90" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C52" s="173" t="s">
         <v>77</v>
       </c>
       <c r="D52" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E52" s="82"/>
       <c r="F52" s="82"/>
@@ -13266,25 +13277,25 @@
         <v>76</v>
       </c>
       <c r="I52" s="82" t="s">
+        <v>572</v>
+      </c>
+      <c r="J52" s="173" t="s">
+        <v>587</v>
+      </c>
+      <c r="K52" s="173" t="s">
+        <v>588</v>
+      </c>
+      <c r="L52" s="173" t="s">
         <v>577</v>
       </c>
-      <c r="J52" s="173" t="s">
-        <v>592</v>
-      </c>
-      <c r="K52" s="173" t="s">
-        <v>593</v>
-      </c>
-      <c r="L52" s="173" t="s">
+      <c r="M52" s="223" t="s">
+        <v>581</v>
+      </c>
+      <c r="N52" s="223" t="s">
         <v>582</v>
       </c>
-      <c r="M52" s="223" t="s">
-        <v>586</v>
-      </c>
-      <c r="N52" s="223" t="s">
-        <v>587</v>
-      </c>
       <c r="O52" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -13292,10 +13303,10 @@
         <v>268</v>
       </c>
       <c r="B53" s="90" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C53" s="94" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D53" s="94"/>
       <c r="E53" s="94"/>
@@ -13304,16 +13315,16 @@
       <c r="H53" s="94"/>
       <c r="I53" s="94"/>
       <c r="J53" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K53" s="94"/>
       <c r="L53" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M53" s="231"/>
       <c r="N53" s="231"/>
       <c r="O53" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -13321,10 +13332,10 @@
         <v>268</v>
       </c>
       <c r="B54" s="90" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C54" s="94" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -13333,16 +13344,16 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
       <c r="J54" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K54" s="94"/>
       <c r="L54" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M54" s="231"/>
       <c r="N54" s="231"/>
       <c r="O54" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="17.25" thickBot="1">
@@ -13350,7 +13361,7 @@
         <v>268</v>
       </c>
       <c r="B55" s="93" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C55" s="102"/>
       <c r="D55" s="102"/>
@@ -13360,16 +13371,16 @@
       <c r="H55" s="102"/>
       <c r="I55" s="102"/>
       <c r="J55" s="102" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K55" s="102"/>
       <c r="L55" s="102" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M55" s="232"/>
       <c r="N55" s="232"/>
       <c r="O55" s="102" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="56" spans="1:15" s="167" customFormat="1" ht="27">
@@ -13377,13 +13388,13 @@
         <v>268</v>
       </c>
       <c r="B56" s="90" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C56" s="173" t="s">
         <v>77</v>
       </c>
       <c r="D56" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E56" s="82"/>
       <c r="F56" s="82"/>
@@ -13392,25 +13403,25 @@
         <v>76</v>
       </c>
       <c r="I56" s="82" t="s">
+        <v>572</v>
+      </c>
+      <c r="J56" s="173" t="s">
+        <v>587</v>
+      </c>
+      <c r="K56" s="173" t="s">
+        <v>588</v>
+      </c>
+      <c r="L56" s="173" t="s">
         <v>577</v>
       </c>
-      <c r="J56" s="173" t="s">
-        <v>592</v>
-      </c>
-      <c r="K56" s="173" t="s">
-        <v>593</v>
-      </c>
-      <c r="L56" s="173" t="s">
+      <c r="M56" s="223" t="s">
+        <v>581</v>
+      </c>
+      <c r="N56" s="223" t="s">
         <v>582</v>
       </c>
-      <c r="M56" s="223" t="s">
-        <v>586</v>
-      </c>
-      <c r="N56" s="223" t="s">
-        <v>587</v>
-      </c>
       <c r="O56" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -13418,10 +13429,10 @@
         <v>268</v>
       </c>
       <c r="B57" s="90" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C57" s="94" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D57" s="94"/>
       <c r="E57" s="94"/>
@@ -13430,16 +13441,16 @@
       <c r="H57" s="94"/>
       <c r="I57" s="94"/>
       <c r="J57" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K57" s="94"/>
       <c r="L57" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M57" s="231"/>
       <c r="N57" s="231"/>
       <c r="O57" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="17.25" thickBot="1">
@@ -13447,7 +13458,7 @@
         <v>268</v>
       </c>
       <c r="B58" s="93" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C58" s="102"/>
       <c r="D58" s="102"/>
@@ -13457,16 +13468,16 @@
       <c r="H58" s="102"/>
       <c r="I58" s="102"/>
       <c r="J58" s="102" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K58" s="102"/>
       <c r="L58" s="102" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M58" s="232"/>
       <c r="N58" s="232"/>
       <c r="O58" s="102" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="167" customFormat="1" ht="27">
@@ -13480,7 +13491,7 @@
         <v>77</v>
       </c>
       <c r="D59" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E59" s="82"/>
       <c r="F59" s="82"/>
@@ -13489,25 +13500,25 @@
         <v>76</v>
       </c>
       <c r="I59" s="82" t="s">
+        <v>572</v>
+      </c>
+      <c r="J59" s="173" t="s">
+        <v>587</v>
+      </c>
+      <c r="K59" s="173" t="s">
+        <v>588</v>
+      </c>
+      <c r="L59" s="173" t="s">
         <v>577</v>
       </c>
-      <c r="J59" s="173" t="s">
-        <v>592</v>
-      </c>
-      <c r="K59" s="173" t="s">
-        <v>593</v>
-      </c>
-      <c r="L59" s="173" t="s">
+      <c r="M59" s="223" t="s">
+        <v>581</v>
+      </c>
+      <c r="N59" s="223" t="s">
         <v>582</v>
       </c>
-      <c r="M59" s="223" t="s">
-        <v>586</v>
-      </c>
-      <c r="N59" s="223" t="s">
-        <v>587</v>
-      </c>
       <c r="O59" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -13518,7 +13529,7 @@
         <v>106</v>
       </c>
       <c r="C60" s="94" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D60" s="94"/>
       <c r="E60" s="94"/>
@@ -13527,16 +13538,16 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
       <c r="J60" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K60" s="94"/>
       <c r="L60" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M60" s="231"/>
       <c r="N60" s="231"/>
       <c r="O60" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -13547,7 +13558,7 @@
         <v>106</v>
       </c>
       <c r="C61" s="94" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D61" s="94"/>
       <c r="E61" s="94"/>
@@ -13556,16 +13567,16 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
       <c r="J61" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K61" s="94"/>
       <c r="L61" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M61" s="231"/>
       <c r="N61" s="231"/>
       <c r="O61" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="17.25" thickBot="1">
@@ -13583,16 +13594,16 @@
       <c r="H62" s="102"/>
       <c r="I62" s="102"/>
       <c r="J62" s="102" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K62" s="102"/>
       <c r="L62" s="102" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M62" s="232"/>
       <c r="N62" s="232"/>
       <c r="O62" s="102" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="63" spans="1:15" s="167" customFormat="1" ht="27">
@@ -13606,7 +13617,7 @@
         <v>77</v>
       </c>
       <c r="D63" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E63" s="82"/>
       <c r="F63" s="82"/>
@@ -13615,25 +13626,25 @@
         <v>76</v>
       </c>
       <c r="I63" s="82" t="s">
+        <v>572</v>
+      </c>
+      <c r="J63" s="173" t="s">
+        <v>587</v>
+      </c>
+      <c r="K63" s="173" t="s">
+        <v>588</v>
+      </c>
+      <c r="L63" s="173" t="s">
         <v>577</v>
       </c>
-      <c r="J63" s="173" t="s">
-        <v>592</v>
-      </c>
-      <c r="K63" s="173" t="s">
-        <v>593</v>
-      </c>
-      <c r="L63" s="173" t="s">
+      <c r="M63" s="223" t="s">
+        <v>581</v>
+      </c>
+      <c r="N63" s="223" t="s">
         <v>582</v>
       </c>
-      <c r="M63" s="223" t="s">
-        <v>586</v>
-      </c>
-      <c r="N63" s="223" t="s">
-        <v>587</v>
-      </c>
       <c r="O63" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -13644,7 +13655,7 @@
         <v>114</v>
       </c>
       <c r="C64" s="94" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D64" s="94"/>
       <c r="E64" s="94"/>
@@ -13653,16 +13664,16 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
       <c r="J64" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K64" s="94"/>
       <c r="L64" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M64" s="231"/>
       <c r="N64" s="231"/>
       <c r="O64" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -13680,16 +13691,16 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
       <c r="J65" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K65" s="94"/>
       <c r="L65" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M65" s="231"/>
       <c r="N65" s="231"/>
       <c r="O65" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="17.25" thickBot="1">
@@ -13700,7 +13711,7 @@
         <v>114</v>
       </c>
       <c r="C66" s="102" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D66" s="102"/>
       <c r="E66" s="102"/>
@@ -13709,16 +13720,16 @@
       <c r="H66" s="102"/>
       <c r="I66" s="102"/>
       <c r="J66" s="102" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K66" s="102"/>
       <c r="L66" s="102" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M66" s="232"/>
       <c r="N66" s="232"/>
       <c r="O66" s="102" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="67" spans="1:15" s="167" customFormat="1" ht="27">
@@ -13732,7 +13743,7 @@
         <v>77</v>
       </c>
       <c r="D67" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E67" s="82"/>
       <c r="F67" s="82"/>
@@ -13741,25 +13752,25 @@
         <v>76</v>
       </c>
       <c r="I67" s="82" t="s">
+        <v>572</v>
+      </c>
+      <c r="J67" s="173" t="s">
+        <v>587</v>
+      </c>
+      <c r="K67" s="173" t="s">
+        <v>588</v>
+      </c>
+      <c r="L67" s="173" t="s">
         <v>577</v>
       </c>
-      <c r="J67" s="173" t="s">
-        <v>592</v>
-      </c>
-      <c r="K67" s="173" t="s">
-        <v>593</v>
-      </c>
-      <c r="L67" s="173" t="s">
+      <c r="M67" s="223" t="s">
+        <v>581</v>
+      </c>
+      <c r="N67" s="223" t="s">
         <v>582</v>
       </c>
-      <c r="M67" s="223" t="s">
-        <v>586</v>
-      </c>
-      <c r="N67" s="223" t="s">
-        <v>587</v>
-      </c>
       <c r="O67" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -13770,7 +13781,7 @@
         <v>126</v>
       </c>
       <c r="C68" s="94" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D68" s="94"/>
       <c r="E68" s="94"/>
@@ -13779,16 +13790,16 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
       <c r="J68" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K68" s="94"/>
       <c r="L68" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M68" s="231"/>
       <c r="N68" s="231"/>
       <c r="O68" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="17.25" thickBot="1">
@@ -13799,7 +13810,7 @@
         <v>126</v>
       </c>
       <c r="C69" s="102" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D69" s="102"/>
       <c r="E69" s="102"/>
@@ -13808,16 +13819,16 @@
       <c r="H69" s="102"/>
       <c r="I69" s="102"/>
       <c r="J69" s="102" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K69" s="102"/>
       <c r="L69" s="102" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M69" s="232"/>
       <c r="N69" s="232"/>
       <c r="O69" s="102" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="70" spans="1:15" s="167" customFormat="1" ht="27">
@@ -13825,13 +13836,13 @@
         <v>268</v>
       </c>
       <c r="B70" s="90" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C70" s="173" t="s">
         <v>77</v>
       </c>
       <c r="D70" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E70" s="82"/>
       <c r="F70" s="82"/>
@@ -13840,25 +13851,25 @@
         <v>76</v>
       </c>
       <c r="I70" s="82" t="s">
+        <v>572</v>
+      </c>
+      <c r="J70" s="173" t="s">
+        <v>587</v>
+      </c>
+      <c r="K70" s="173" t="s">
+        <v>588</v>
+      </c>
+      <c r="L70" s="173" t="s">
         <v>577</v>
       </c>
-      <c r="J70" s="173" t="s">
-        <v>592</v>
-      </c>
-      <c r="K70" s="173" t="s">
-        <v>593</v>
-      </c>
-      <c r="L70" s="173" t="s">
+      <c r="M70" s="223" t="s">
+        <v>581</v>
+      </c>
+      <c r="N70" s="223" t="s">
         <v>582</v>
       </c>
-      <c r="M70" s="223" t="s">
-        <v>586</v>
-      </c>
-      <c r="N70" s="223" t="s">
-        <v>587</v>
-      </c>
       <c r="O70" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -13866,10 +13877,10 @@
         <v>268</v>
       </c>
       <c r="B71" s="90" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C71" s="94" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D71" s="94"/>
       <c r="E71" s="94"/>
@@ -13878,16 +13889,16 @@
       <c r="H71" s="94"/>
       <c r="I71" s="94"/>
       <c r="J71" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K71" s="94"/>
       <c r="L71" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M71" s="231"/>
       <c r="N71" s="231"/>
       <c r="O71" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -13895,10 +13906,10 @@
         <v>268</v>
       </c>
       <c r="B72" s="90" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C72" s="94" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D72" s="94"/>
       <c r="E72" s="94"/>
@@ -13907,16 +13918,16 @@
       <c r="H72" s="94"/>
       <c r="I72" s="94"/>
       <c r="J72" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K72" s="94"/>
       <c r="L72" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M72" s="231"/>
       <c r="N72" s="231"/>
       <c r="O72" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="17.25" thickBot="1">
@@ -13924,10 +13935,10 @@
         <v>268</v>
       </c>
       <c r="B73" s="93" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C73" s="102" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D73" s="102"/>
       <c r="E73" s="102"/>
@@ -13936,16 +13947,16 @@
       <c r="H73" s="102"/>
       <c r="I73" s="102"/>
       <c r="J73" s="102" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K73" s="102"/>
       <c r="L73" s="102" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M73" s="232"/>
       <c r="N73" s="232"/>
       <c r="O73" s="102" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="74" spans="1:15" s="167" customFormat="1" ht="27">
@@ -13953,13 +13964,13 @@
         <v>268</v>
       </c>
       <c r="B74" s="173" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C74" s="173" t="s">
         <v>77</v>
       </c>
       <c r="D74" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E74" s="82"/>
       <c r="F74" s="82"/>
@@ -13968,25 +13979,25 @@
         <v>76</v>
       </c>
       <c r="I74" s="82" t="s">
+        <v>572</v>
+      </c>
+      <c r="J74" s="173" t="s">
+        <v>587</v>
+      </c>
+      <c r="K74" s="173" t="s">
+        <v>588</v>
+      </c>
+      <c r="L74" s="173" t="s">
         <v>577</v>
       </c>
-      <c r="J74" s="173" t="s">
-        <v>592</v>
-      </c>
-      <c r="K74" s="173" t="s">
-        <v>593</v>
-      </c>
-      <c r="L74" s="173" t="s">
+      <c r="M74" s="223" t="s">
+        <v>581</v>
+      </c>
+      <c r="N74" s="223" t="s">
         <v>582</v>
       </c>
-      <c r="M74" s="223" t="s">
-        <v>586</v>
-      </c>
-      <c r="N74" s="223" t="s">
-        <v>587</v>
-      </c>
       <c r="O74" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="17.25" thickBot="1">
@@ -13994,10 +14005,10 @@
         <v>268</v>
       </c>
       <c r="B75" s="113" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C75" s="113" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D75" s="113"/>
       <c r="E75" s="113"/>
@@ -14006,30 +14017,30 @@
       <c r="H75" s="113"/>
       <c r="I75" s="113"/>
       <c r="J75" s="113" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K75" s="113"/>
       <c r="L75" s="113" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M75" s="237"/>
       <c r="N75" s="237"/>
       <c r="O75" s="113" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="76" spans="1:15" s="167" customFormat="1" ht="27">
       <c r="A76" s="243" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B76" s="173" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C76" s="173" t="s">
         <v>77</v>
       </c>
       <c r="D76" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E76" s="82"/>
       <c r="F76" s="82"/>
@@ -14038,36 +14049,36 @@
         <v>76</v>
       </c>
       <c r="I76" s="82" t="s">
+        <v>572</v>
+      </c>
+      <c r="J76" s="173" t="s">
+        <v>587</v>
+      </c>
+      <c r="K76" s="173" t="s">
+        <v>588</v>
+      </c>
+      <c r="L76" s="173" t="s">
         <v>577</v>
       </c>
-      <c r="J76" s="173" t="s">
-        <v>592</v>
-      </c>
-      <c r="K76" s="173" t="s">
-        <v>593</v>
-      </c>
-      <c r="L76" s="173" t="s">
+      <c r="M76" s="223" t="s">
+        <v>581</v>
+      </c>
+      <c r="N76" s="223" t="s">
         <v>582</v>
       </c>
-      <c r="M76" s="223" t="s">
-        <v>586</v>
-      </c>
-      <c r="N76" s="223" t="s">
-        <v>587</v>
-      </c>
       <c r="O76" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="17.25" thickBot="1">
       <c r="A77" s="92" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B77" s="113" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C77" s="113" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D77" s="113"/>
       <c r="E77" s="113"/>
@@ -14076,21 +14087,21 @@
       <c r="H77" s="113"/>
       <c r="I77" s="113"/>
       <c r="J77" s="113" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K77" s="113"/>
       <c r="L77" s="113" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M77" s="237"/>
       <c r="N77" s="237"/>
       <c r="O77" s="113" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="78" spans="1:15" s="167" customFormat="1" ht="27">
       <c r="A78" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B78" s="90" t="s">
         <v>156</v>
@@ -14099,7 +14110,7 @@
         <v>77</v>
       </c>
       <c r="D78" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E78" s="82"/>
       <c r="F78" s="82"/>
@@ -14108,30 +14119,30 @@
         <v>76</v>
       </c>
       <c r="I78" s="82" t="s">
+        <v>572</v>
+      </c>
+      <c r="J78" s="173" t="s">
+        <v>587</v>
+      </c>
+      <c r="K78" s="173" t="s">
+        <v>588</v>
+      </c>
+      <c r="L78" s="173" t="s">
         <v>577</v>
       </c>
-      <c r="J78" s="173" t="s">
-        <v>592</v>
-      </c>
-      <c r="K78" s="173" t="s">
-        <v>593</v>
-      </c>
-      <c r="L78" s="173" t="s">
+      <c r="M78" s="223" t="s">
+        <v>581</v>
+      </c>
+      <c r="N78" s="223" t="s">
         <v>582</v>
       </c>
-      <c r="M78" s="223" t="s">
-        <v>586</v>
-      </c>
-      <c r="N78" s="223" t="s">
-        <v>587</v>
-      </c>
       <c r="O78" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B79" s="90" t="s">
         <v>156</v>
@@ -14144,21 +14155,21 @@
       <c r="H79" s="101"/>
       <c r="I79" s="101"/>
       <c r="J79" s="101" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K79" s="101"/>
       <c r="L79" s="101" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M79" s="235"/>
       <c r="N79" s="235"/>
       <c r="O79" s="101" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B80" s="90" t="s">
         <v>156</v>
@@ -14171,21 +14182,21 @@
       <c r="H80" s="101"/>
       <c r="I80" s="101"/>
       <c r="J80" s="101" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K80" s="101"/>
       <c r="L80" s="101" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M80" s="235"/>
       <c r="N80" s="235"/>
       <c r="O80" s="101" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B81" s="90" t="s">
         <v>156</v>
@@ -14198,21 +14209,21 @@
       <c r="H81" s="101"/>
       <c r="I81" s="101"/>
       <c r="J81" s="101" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K81" s="101"/>
       <c r="L81" s="101" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M81" s="235"/>
       <c r="N81" s="235"/>
       <c r="O81" s="101" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B82" s="90" t="s">
         <v>156</v>
@@ -14225,21 +14236,21 @@
       <c r="H82" s="101"/>
       <c r="I82" s="101"/>
       <c r="J82" s="101" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K82" s="101"/>
       <c r="L82" s="101" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M82" s="235"/>
       <c r="N82" s="235"/>
       <c r="O82" s="101" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="17.25" thickBot="1">
       <c r="A83" s="92" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B83" s="93" t="s">
         <v>156</v>
@@ -14252,30 +14263,30 @@
       <c r="H83" s="110"/>
       <c r="I83" s="110"/>
       <c r="J83" s="110" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K83" s="110"/>
       <c r="L83" s="110" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M83" s="236"/>
       <c r="N83" s="236"/>
       <c r="O83" s="110" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="84" spans="1:15" s="167" customFormat="1" ht="27">
       <c r="A84" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B84" s="90" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C84" s="173" t="s">
         <v>77</v>
       </c>
       <c r="D84" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E84" s="82"/>
       <c r="F84" s="82"/>
@@ -14284,33 +14295,33 @@
         <v>76</v>
       </c>
       <c r="I84" s="82" t="s">
+        <v>572</v>
+      </c>
+      <c r="J84" s="173" t="s">
+        <v>587</v>
+      </c>
+      <c r="K84" s="173" t="s">
+        <v>588</v>
+      </c>
+      <c r="L84" s="173" t="s">
         <v>577</v>
       </c>
-      <c r="J84" s="173" t="s">
-        <v>592</v>
-      </c>
-      <c r="K84" s="173" t="s">
-        <v>593</v>
-      </c>
-      <c r="L84" s="173" t="s">
+      <c r="M84" s="223" t="s">
+        <v>581</v>
+      </c>
+      <c r="N84" s="223" t="s">
         <v>582</v>
       </c>
-      <c r="M84" s="223" t="s">
-        <v>586</v>
-      </c>
-      <c r="N84" s="223" t="s">
-        <v>587</v>
-      </c>
       <c r="O84" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B85" s="90" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C85" s="101"/>
       <c r="D85" s="101"/>
@@ -14320,24 +14331,24 @@
       <c r="H85" s="101"/>
       <c r="I85" s="101"/>
       <c r="J85" s="101" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K85" s="101"/>
       <c r="L85" s="101" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M85" s="235"/>
       <c r="N85" s="235"/>
       <c r="O85" s="101" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B86" s="90" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C86" s="101"/>
       <c r="D86" s="101"/>
@@ -14347,24 +14358,24 @@
       <c r="H86" s="101"/>
       <c r="I86" s="101"/>
       <c r="J86" s="101" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K86" s="101"/>
       <c r="L86" s="101" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M86" s="235"/>
       <c r="N86" s="235"/>
       <c r="O86" s="101" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="17.25" thickBot="1">
       <c r="A87" s="92" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B87" s="93" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C87" s="110"/>
       <c r="D87" s="110"/>
@@ -14374,21 +14385,21 @@
       <c r="H87" s="110"/>
       <c r="I87" s="110"/>
       <c r="J87" s="110" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K87" s="110"/>
       <c r="L87" s="110" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M87" s="236"/>
       <c r="N87" s="236"/>
       <c r="O87" s="110" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="88" spans="1:15" s="167" customFormat="1" ht="27">
       <c r="A88" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B88" s="90" t="s">
         <v>158</v>
@@ -14397,7 +14408,7 @@
         <v>77</v>
       </c>
       <c r="D88" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E88" s="82"/>
       <c r="F88" s="82"/>
@@ -14406,36 +14417,36 @@
         <v>76</v>
       </c>
       <c r="I88" s="82" t="s">
+        <v>572</v>
+      </c>
+      <c r="J88" s="173" t="s">
+        <v>587</v>
+      </c>
+      <c r="K88" s="173" t="s">
+        <v>588</v>
+      </c>
+      <c r="L88" s="173" t="s">
         <v>577</v>
       </c>
-      <c r="J88" s="173" t="s">
-        <v>592</v>
-      </c>
-      <c r="K88" s="173" t="s">
-        <v>593</v>
-      </c>
-      <c r="L88" s="173" t="s">
+      <c r="M88" s="223" t="s">
+        <v>581</v>
+      </c>
+      <c r="N88" s="223" t="s">
         <v>582</v>
       </c>
-      <c r="M88" s="223" t="s">
-        <v>586</v>
-      </c>
-      <c r="N88" s="223" t="s">
-        <v>587</v>
-      </c>
       <c r="O88" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B89" s="90" t="s">
         <v>158</v>
       </c>
       <c r="C89" s="94" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D89" s="94"/>
       <c r="E89" s="94"/>
@@ -14444,27 +14455,27 @@
       <c r="H89" s="94"/>
       <c r="I89" s="94"/>
       <c r="J89" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K89" s="94"/>
       <c r="L89" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M89" s="231"/>
       <c r="N89" s="231"/>
       <c r="O89" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B90" s="90" t="s">
         <v>158</v>
       </c>
       <c r="C90" s="94" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D90" s="94"/>
       <c r="E90" s="94"/>
@@ -14473,27 +14484,27 @@
       <c r="H90" s="94"/>
       <c r="I90" s="94"/>
       <c r="J90" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K90" s="94"/>
       <c r="L90" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M90" s="231"/>
       <c r="N90" s="231"/>
       <c r="O90" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B91" s="90" t="s">
         <v>158</v>
       </c>
       <c r="C91" s="94" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D91" s="94"/>
       <c r="E91" s="94"/>
@@ -14502,21 +14513,21 @@
       <c r="H91" s="94"/>
       <c r="I91" s="94"/>
       <c r="J91" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K91" s="94"/>
       <c r="L91" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M91" s="231"/>
       <c r="N91" s="231"/>
       <c r="O91" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B92" s="90" t="s">
         <v>158</v>
@@ -14529,27 +14540,27 @@
       <c r="H92" s="94"/>
       <c r="I92" s="94"/>
       <c r="J92" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K92" s="94"/>
       <c r="L92" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M92" s="231"/>
       <c r="N92" s="231"/>
       <c r="O92" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B93" s="90" t="s">
         <v>158</v>
       </c>
       <c r="C93" s="94" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D93" s="94"/>
       <c r="E93" s="94"/>
@@ -14558,27 +14569,27 @@
       <c r="H93" s="94"/>
       <c r="I93" s="94"/>
       <c r="J93" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K93" s="94"/>
       <c r="L93" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M93" s="231"/>
       <c r="N93" s="231"/>
       <c r="O93" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="17.25" thickBot="1">
       <c r="A94" s="92" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B94" s="93" t="s">
         <v>158</v>
       </c>
       <c r="C94" s="102" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D94" s="102"/>
       <c r="E94" s="102"/>
@@ -14587,21 +14598,21 @@
       <c r="H94" s="102"/>
       <c r="I94" s="102"/>
       <c r="J94" s="102" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K94" s="102"/>
       <c r="L94" s="102" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M94" s="232"/>
       <c r="N94" s="232"/>
       <c r="O94" s="102" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="95" spans="1:15" s="167" customFormat="1" ht="27">
       <c r="A95" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B95" s="90" t="s">
         <v>154</v>
@@ -14610,7 +14621,7 @@
         <v>77</v>
       </c>
       <c r="D95" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E95" s="82"/>
       <c r="F95" s="82"/>
@@ -14619,36 +14630,36 @@
         <v>76</v>
       </c>
       <c r="I95" s="82" t="s">
+        <v>572</v>
+      </c>
+      <c r="J95" s="173" t="s">
+        <v>587</v>
+      </c>
+      <c r="K95" s="173" t="s">
+        <v>588</v>
+      </c>
+      <c r="L95" s="173" t="s">
         <v>577</v>
       </c>
-      <c r="J95" s="173" t="s">
-        <v>592</v>
-      </c>
-      <c r="K95" s="173" t="s">
-        <v>593</v>
-      </c>
-      <c r="L95" s="173" t="s">
+      <c r="M95" s="223" t="s">
+        <v>581</v>
+      </c>
+      <c r="N95" s="223" t="s">
         <v>582</v>
       </c>
-      <c r="M95" s="223" t="s">
-        <v>586</v>
-      </c>
-      <c r="N95" s="223" t="s">
-        <v>587</v>
-      </c>
       <c r="O95" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B96" s="90" t="s">
         <v>154</v>
       </c>
       <c r="C96" s="94" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D96" s="94"/>
       <c r="E96" s="94"/>
@@ -14657,27 +14668,27 @@
       <c r="H96" s="94"/>
       <c r="I96" s="94"/>
       <c r="J96" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K96" s="94"/>
       <c r="L96" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M96" s="231"/>
       <c r="N96" s="231"/>
       <c r="O96" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B97" s="90" t="s">
         <v>154</v>
       </c>
       <c r="C97" s="94" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D97" s="94"/>
       <c r="E97" s="94"/>
@@ -14686,21 +14697,21 @@
       <c r="H97" s="94"/>
       <c r="I97" s="94"/>
       <c r="J97" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K97" s="94"/>
       <c r="L97" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M97" s="231"/>
       <c r="N97" s="231"/>
       <c r="O97" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B98" s="90" t="s">
         <v>154</v>
@@ -14713,21 +14724,21 @@
       <c r="H98" s="94"/>
       <c r="I98" s="94"/>
       <c r="J98" s="94" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K98" s="94"/>
       <c r="L98" s="94" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M98" s="231"/>
       <c r="N98" s="231"/>
       <c r="O98" s="94" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="17.25" thickBot="1">
       <c r="A99" s="92" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B99" s="93" t="s">
         <v>154</v>
@@ -14740,21 +14751,21 @@
       <c r="H99" s="102"/>
       <c r="I99" s="102"/>
       <c r="J99" s="102" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K99" s="102"/>
       <c r="L99" s="102" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M99" s="232"/>
       <c r="N99" s="232"/>
       <c r="O99" s="102" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="100" spans="1:15" s="167" customFormat="1" ht="27">
       <c r="A100" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B100" s="90" t="s">
         <v>223</v>
@@ -14763,7 +14774,7 @@
         <v>77</v>
       </c>
       <c r="D100" s="82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E100" s="82"/>
       <c r="F100" s="82"/>
@@ -14772,30 +14783,30 @@
         <v>76</v>
       </c>
       <c r="I100" s="82" t="s">
+        <v>572</v>
+      </c>
+      <c r="J100" s="173" t="s">
+        <v>587</v>
+      </c>
+      <c r="K100" s="173" t="s">
+        <v>588</v>
+      </c>
+      <c r="L100" s="173" t="s">
         <v>577</v>
       </c>
-      <c r="J100" s="173" t="s">
-        <v>592</v>
-      </c>
-      <c r="K100" s="173" t="s">
-        <v>593</v>
-      </c>
-      <c r="L100" s="173" t="s">
+      <c r="M100" s="223" t="s">
+        <v>581</v>
+      </c>
+      <c r="N100" s="223" t="s">
         <v>582</v>
       </c>
-      <c r="M100" s="223" t="s">
-        <v>586</v>
-      </c>
-      <c r="N100" s="223" t="s">
-        <v>587</v>
-      </c>
       <c r="O100" s="173" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B101" s="90" t="s">
         <v>223</v>
@@ -14808,21 +14819,21 @@
       <c r="H101" s="101"/>
       <c r="I101" s="101"/>
       <c r="J101" s="101" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K101" s="101"/>
       <c r="L101" s="101" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M101" s="235"/>
       <c r="N101" s="235"/>
       <c r="O101" s="101" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B102" s="90" t="s">
         <v>223</v>
@@ -14835,21 +14846,21 @@
       <c r="H102" s="101"/>
       <c r="I102" s="101"/>
       <c r="J102" s="101" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K102" s="101"/>
       <c r="L102" s="101" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M102" s="235"/>
       <c r="N102" s="235"/>
       <c r="O102" s="101" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B103" s="90" t="s">
         <v>223</v>
@@ -14862,21 +14873,21 @@
       <c r="H103" s="101"/>
       <c r="I103" s="101"/>
       <c r="J103" s="101" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K103" s="101"/>
       <c r="L103" s="101" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M103" s="235"/>
       <c r="N103" s="235"/>
       <c r="O103" s="101" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="89" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B104" s="90" t="s">
         <v>223</v>
@@ -14889,21 +14900,21 @@
       <c r="H104" s="101"/>
       <c r="I104" s="101"/>
       <c r="J104" s="101" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K104" s="101"/>
       <c r="L104" s="101" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M104" s="235"/>
       <c r="N104" s="235"/>
       <c r="O104" s="101" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="17.25" thickBot="1">
       <c r="A105" s="92" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B105" s="93" t="s">
         <v>223</v>
@@ -14916,16 +14927,16 @@
       <c r="H105" s="110"/>
       <c r="I105" s="110"/>
       <c r="J105" s="110" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K105" s="110"/>
       <c r="L105" s="110" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M105" s="236"/>
       <c r="N105" s="236"/>
       <c r="O105" s="110" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -14935,7 +14946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
@@ -15020,7 +15031,7 @@
       <c r="M3" s="272"/>
       <c r="N3" s="272"/>
       <c r="O3" s="208" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.25" thickBot="1">
@@ -15067,7 +15078,7 @@
         <v>96</v>
       </c>
       <c r="O4" s="210" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.25" thickTop="1">
@@ -15108,7 +15119,7 @@
         <v>104</v>
       </c>
       <c r="O5" s="209" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -15149,7 +15160,7 @@
         <v>107</v>
       </c>
       <c r="O6" s="209" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -15190,7 +15201,7 @@
         <v>110</v>
       </c>
       <c r="O7" s="209" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -15231,7 +15242,7 @@
         <v>104</v>
       </c>
       <c r="O8" s="209" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -15272,7 +15283,7 @@
         <v>104</v>
       </c>
       <c r="O9" s="209" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -15313,7 +15324,7 @@
         <v>110</v>
       </c>
       <c r="O10" s="209" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -15354,7 +15365,7 @@
         <v>104</v>
       </c>
       <c r="O11" s="209" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -15395,7 +15406,7 @@
         <v>110</v>
       </c>
       <c r="O12" s="209" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -15436,7 +15447,7 @@
         <v>104</v>
       </c>
       <c r="O13" s="209" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -15477,7 +15488,7 @@
         <v>104</v>
       </c>
       <c r="O14" s="209" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -15518,7 +15529,7 @@
         <v>104</v>
       </c>
       <c r="O15" s="209" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="17.25" thickBot="1">
@@ -15559,7 +15570,7 @@
         <v>110</v>
       </c>
       <c r="O16" s="209" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -15600,7 +15611,7 @@
         <v>133</v>
       </c>
       <c r="O17" s="209" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -15641,7 +15652,7 @@
         <v>136</v>
       </c>
       <c r="O18" s="209" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -15682,7 +15693,7 @@
         <v>139</v>
       </c>
       <c r="O19" s="209" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -15723,7 +15734,7 @@
         <v>139</v>
       </c>
       <c r="O20" s="209" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -15766,7 +15777,7 @@
         <v>133</v>
       </c>
       <c r="O21" s="209" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="17.25" thickBot="1">
@@ -15809,7 +15820,7 @@
         <v>136</v>
       </c>
       <c r="O22" s="209" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -15850,7 +15861,7 @@
         <v>107</v>
       </c>
       <c r="O23" s="209" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -15891,7 +15902,7 @@
         <v>110</v>
       </c>
       <c r="O24" s="209" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -15932,7 +15943,7 @@
         <v>107</v>
       </c>
       <c r="O25" s="209" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -15975,7 +15986,7 @@
         <v>107</v>
       </c>
       <c r="O26" s="209" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -16018,7 +16029,7 @@
         <v>159</v>
       </c>
       <c r="O27" s="209" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="17.25" thickBot="1">
@@ -16061,7 +16072,7 @@
         <v>107</v>
       </c>
       <c r="O28" s="209" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -16700,7 +16711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -16764,21 +16775,21 @@
       <c r="D3" s="134"/>
       <c r="E3" s="134"/>
       <c r="F3" s="135" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="116"/>
       <c r="B4" s="116" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C4" s="116" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D4" s="136"/>
       <c r="E4" s="136"/>
       <c r="F4" s="129" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -16786,15 +16797,15 @@
         <v>258</v>
       </c>
       <c r="B5" s="138" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C5" s="138" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D5" s="139"/>
       <c r="E5" s="139"/>
       <c r="F5" s="140" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" thickBot="1">
@@ -16810,7 +16821,7 @@
       <c r="D6" s="142"/>
       <c r="E6" s="142"/>
       <c r="F6" s="143" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -16830,15 +16841,15 @@
     <row r="8" spans="1:6" ht="79.5" customHeight="1">
       <c r="A8" s="133"/>
       <c r="B8" s="133" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C8" s="133"/>
       <c r="D8" s="134"/>
       <c r="E8" s="134" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F8" s="144" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -16854,7 +16865,7 @@
         <v>242</v>
       </c>
       <c r="F9" s="129" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -16864,13 +16875,13 @@
       </c>
       <c r="C10" s="116"/>
       <c r="D10" s="136" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E10" s="136" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F10" s="129" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -16892,14 +16903,14 @@
     <row r="12" spans="1:6">
       <c r="A12" s="114"/>
       <c r="B12" s="114" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C12" s="114"/>
       <c r="D12" s="145" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E12" s="145" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F12" s="146" t="s">
         <v>250</v>
@@ -16985,14 +16996,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B2:H34"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="H16" sqref="B3:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17011,23 +17022,23 @@
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="278" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C3" s="278"/>
       <c r="D3" s="127" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E3" s="128" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F3" s="127" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G3" s="127" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="H3" s="127" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -17036,61 +17047,61 @@
       </c>
       <c r="C4" s="280"/>
       <c r="D4" s="130" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E4" s="121" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="F4" s="121" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G4" s="121" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="H4" s="148" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="281" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C5" s="147" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D5" s="130" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E5" s="121" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F5" s="121" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G5" s="121" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H5" s="122"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="282"/>
       <c r="C6" s="147" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D6" s="129" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E6" s="125" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F6" s="121" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G6" s="122">
         <v>7</v>
       </c>
       <c r="H6" s="122" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="2:8">
@@ -17113,80 +17124,80 @@
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="278" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C10" s="278"/>
       <c r="D10" s="127" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E10" s="128" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F10" s="127" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G10" s="127" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="H10" s="127" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="277" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C11" s="277"/>
       <c r="D11" s="116" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E11" s="124">
         <v>1431052</v>
       </c>
       <c r="F11" s="124" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G11" s="125" t="s">
         <v>245</v>
       </c>
       <c r="H11" s="122" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="66">
       <c r="B12" s="277" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C12" s="277"/>
       <c r="D12" s="116" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E12" s="125" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F12" s="124" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="G12" s="122">
         <v>8</v>
       </c>
       <c r="H12" s="149" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="277" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C13" s="277"/>
       <c r="D13" s="116" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E13" s="125">
         <v>2018</v>
       </c>
       <c r="F13" s="124" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="G13" s="122">
         <v>4</v>
@@ -17195,36 +17206,36 @@
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="277" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C14" s="277"/>
       <c r="D14" s="116" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E14" s="125" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F14" s="124" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="G14" s="122">
         <v>6</v>
       </c>
       <c r="H14" s="151" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="277" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C15" s="277"/>
       <c r="D15" s="126"/>
       <c r="E15" s="125" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F15" s="124" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="G15" s="123">
         <v>3</v>
@@ -17233,20 +17244,20 @@
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="277" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C16" s="277"/>
       <c r="D16" s="116" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E16" s="121" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F16" s="121" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="G16" s="121" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="H16" s="120"/>
     </row>
@@ -17366,7 +17377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -17425,7 +17436,7 @@
         <v>75</v>
       </c>
       <c r="G2" s="164" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="25.5">
@@ -17482,16 +17493,16 @@
     </row>
     <row r="7" spans="1:7" s="183" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A7" s="189" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B7" s="190" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C7" s="190" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D7" s="190" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E7" s="191"/>
       <c r="F7" s="192"/>
@@ -17502,10 +17513,10 @@
         <v>266</v>
       </c>
       <c r="B8" s="194" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C8" s="195" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D8" s="196"/>
       <c r="E8" s="196" t="s">
@@ -17521,10 +17532,10 @@
         <v>263</v>
       </c>
       <c r="B9" s="194" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C9" s="195" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D9" s="199"/>
       <c r="E9" s="199" t="s">
@@ -17540,7 +17551,7 @@
         <v>265</v>
       </c>
       <c r="B10" s="194" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C10" s="195"/>
       <c r="D10" s="199"/>
@@ -17555,7 +17566,7 @@
     <row r="11" spans="1:7" ht="24.75">
       <c r="A11" s="201"/>
       <c r="B11" s="194" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C11" s="195"/>
       <c r="D11" s="199"/>
@@ -17572,10 +17583,10 @@
         <v>263</v>
       </c>
       <c r="B12" s="194" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C12" s="195" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D12" s="199"/>
       <c r="E12" s="199" t="s">
@@ -17591,10 +17602,10 @@
         <v>262</v>
       </c>
       <c r="B13" s="194" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C13" s="195" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D13" s="199"/>
       <c r="E13" s="199" t="s">
@@ -17608,7 +17619,7 @@
     <row r="14" spans="1:7" ht="24.75">
       <c r="A14" s="202"/>
       <c r="B14" s="194" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C14" s="195"/>
       <c r="D14" s="202"/>
@@ -17623,14 +17634,14 @@
     <row r="15" spans="1:7" ht="24.75">
       <c r="A15" s="195"/>
       <c r="B15" s="194" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C15" s="195" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D15" s="195"/>
       <c r="E15" s="195" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F15" s="200" t="s">
         <v>75</v>
@@ -17640,14 +17651,14 @@
     <row r="16" spans="1:7" ht="24.75">
       <c r="A16" s="194"/>
       <c r="B16" s="194" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C16" s="194" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D16" s="194"/>
       <c r="E16" s="194" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F16" s="200" t="s">
         <v>75</v>
@@ -17657,14 +17668,14 @@
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="194"/>
       <c r="B17" s="194" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C17" s="194" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D17" s="194"/>
       <c r="E17" s="194" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F17" s="200" t="s">
         <v>75</v>
@@ -17674,14 +17685,14 @@
     <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="194"/>
       <c r="B18" s="194" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C18" s="194" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D18" s="194"/>
       <c r="E18" s="194" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F18" s="200" t="s">
         <v>75</v>
@@ -17691,16 +17702,16 @@
     <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="194"/>
       <c r="B19" s="194" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C19" s="194" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D19" s="194" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E19" s="194" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F19" s="200" t="s">
         <v>75</v>
@@ -17710,16 +17721,16 @@
     <row r="20" spans="1:7" ht="31.5" customHeight="1">
       <c r="A20" s="194"/>
       <c r="B20" s="205" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C20" s="205" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D20" s="205" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E20" s="205" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F20" s="206" t="s">
         <v>75</v>
@@ -17729,16 +17740,16 @@
     <row r="21" spans="1:7" ht="24.75">
       <c r="A21" s="194"/>
       <c r="B21" s="194" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C21" s="194" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D21" s="203" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E21" s="194" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F21" s="200" t="s">
         <v>75</v>
@@ -17748,14 +17759,14 @@
     <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="194"/>
       <c r="B22" s="194" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C22" s="194" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D22" s="194"/>
       <c r="E22" s="194" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F22" s="200" t="s">
         <v>75</v>
@@ -17765,14 +17776,14 @@
     <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="194"/>
       <c r="B23" s="194" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C23" s="194" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D23" s="194"/>
       <c r="E23" s="194" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F23" s="200" t="s">
         <v>75</v>
@@ -17782,16 +17793,16 @@
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="194"/>
       <c r="B24" s="194" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C24" s="194" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D24" s="194" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E24" s="194" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F24" s="200" t="s">
         <v>75</v>
@@ -17801,16 +17812,16 @@
     <row r="25" spans="1:7" ht="24.75">
       <c r="A25" s="194"/>
       <c r="B25" s="194" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C25" s="194" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D25" s="194" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E25" s="194" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F25" s="200" t="s">
         <v>75</v>
@@ -17820,16 +17831,16 @@
     <row r="26" spans="1:7" ht="24.75">
       <c r="A26" s="194"/>
       <c r="B26" s="194" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C26" s="194" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D26" s="204" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E26" s="194" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F26" s="200" t="s">
         <v>75</v>
@@ -17839,16 +17850,16 @@
     <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="A27" s="194"/>
       <c r="B27" s="194" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C27" s="194" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D27" s="194" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E27" s="194" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F27" s="200" t="s">
         <v>75</v>
@@ -17859,11 +17870,11 @@
       <c r="A28" s="194"/>
       <c r="B28" s="194"/>
       <c r="C28" s="194" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D28" s="194"/>
       <c r="E28" s="194" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F28" s="200" t="s">
         <v>75</v>

--- a/경기천년사업 기능별 분류맵(안).xlsx
+++ b/경기천년사업 기능별 분류맵(안).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="846" activeTab="3"/>
+    <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="846" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="분류맵2017" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3114" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3128" uniqueCount="683">
   <si>
     <t>경기천년 기념사업</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2744,6 +2744,51 @@
   <si>
     <t>확인필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001436-2017-000015(001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001436-2017-000015(002)</t>
+  </si>
+  <si>
+    <t>1431052-e0001436-2017-000015(003)</t>
+  </si>
+  <si>
+    <t>1431052-e0001436-2017-000015(004)</t>
+  </si>
+  <si>
+    <t>1431052-e0001436-2017-000015(005)</t>
+  </si>
+  <si>
+    <t>1431052-e0001436-2017-000016(001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001436-2017-000016(002)</t>
+  </si>
+  <si>
+    <t>1431052-e0001436-2017-000016(003)</t>
+  </si>
+  <si>
+    <t>1431052-e0001436-2017-000016(004)</t>
+  </si>
+  <si>
+    <t>1431052-e0001436-2017-000018(001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001436-2017-000018(002)</t>
+  </si>
+  <si>
+    <t>1431052-e0001436-2017-000018(003)</t>
+  </si>
+  <si>
+    <t>1431052-e0001436-2017-000018(004)</t>
+  </si>
+  <si>
+    <t>1431052-e0001436-2017-000018(005)</t>
   </si>
 </sst>
 </file>
@@ -4779,6 +4824,54 @@
     <xf numFmtId="49" fontId="3" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4844,54 +4937,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="42" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -5255,9 +5300,9 @@
   <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:N1"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5266,7 +5311,7 @@
     <col min="2" max="2" width="13.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="40.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="46.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25" style="289" customWidth="1"/>
+    <col min="5" max="5" width="25" style="267" customWidth="1"/>
     <col min="6" max="11" width="9" style="2"/>
     <col min="12" max="12" width="27.375" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
@@ -5285,7 +5330,7 @@
       <c r="D1" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="287" t="s">
+      <c r="E1" s="265" t="s">
         <v>354</v>
       </c>
       <c r="F1" s="84" t="s">
@@ -5308,7 +5353,7 @@
       <c r="D2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="288" t="s">
+      <c r="E2" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F2" s="167" t="s">
@@ -5352,7 +5397,7 @@
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="289" t="s">
+      <c r="E4" s="267" t="s">
         <v>447</v>
       </c>
       <c r="F4" s="168" t="s">
@@ -5374,7 +5419,7 @@
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="289" t="s">
+      <c r="E5" s="267" t="s">
         <v>74</v>
       </c>
       <c r="F5" s="168" t="s">
@@ -5396,7 +5441,7 @@
       <c r="D6" s="165" t="s">
         <v>658</v>
       </c>
-      <c r="E6" s="290" t="s">
+      <c r="E6" s="268" t="s">
         <v>658</v>
       </c>
       <c r="F6" s="165" t="s">
@@ -5418,7 +5463,7 @@
       <c r="D7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="288" t="s">
+      <c r="E7" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F7" s="167" t="s">
@@ -5440,7 +5485,7 @@
       <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="289" t="s">
+      <c r="E8" s="267" t="s">
         <v>71</v>
       </c>
       <c r="F8" s="168" t="s">
@@ -5461,7 +5506,7 @@
       <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="289" t="s">
+      <c r="E9" s="267" t="s">
         <v>72</v>
       </c>
       <c r="F9" s="168" t="s">
@@ -5482,7 +5527,7 @@
       <c r="D10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="291" t="s">
+      <c r="E10" s="269" t="s">
         <v>73</v>
       </c>
       <c r="F10" s="169" t="s">
@@ -5502,7 +5547,7 @@
       <c r="D11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="288" t="s">
+      <c r="E11" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F11" s="167" t="s">
@@ -5522,7 +5567,7 @@
       <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="289" t="s">
+      <c r="E12" s="267" t="s">
         <v>660</v>
       </c>
       <c r="F12" s="168" t="s">
@@ -5542,7 +5587,7 @@
       <c r="D13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="289" t="s">
+      <c r="E13" s="267" t="s">
         <v>662</v>
       </c>
       <c r="F13" s="168" t="s">
@@ -5562,7 +5607,7 @@
       <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="289" t="s">
+      <c r="E14" s="267" t="s">
         <v>664</v>
       </c>
       <c r="F14" s="168" t="s">
@@ -5582,7 +5627,7 @@
       <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="289" t="s">
+      <c r="E15" s="267" t="s">
         <v>292</v>
       </c>
       <c r="F15" s="168" t="s">
@@ -5602,7 +5647,7 @@
       <c r="D16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="291"/>
+      <c r="E16" s="269"/>
       <c r="F16" s="169" t="s">
         <v>76</v>
       </c>
@@ -5620,7 +5665,7 @@
       <c r="D17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="288" t="s">
+      <c r="E17" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F17" s="167" t="s">
@@ -5640,7 +5685,7 @@
       <c r="D18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="289" t="s">
+      <c r="E18" s="267" t="s">
         <v>290</v>
       </c>
       <c r="F18" s="168" t="s">
@@ -5660,7 +5705,7 @@
       <c r="D19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="291" t="s">
+      <c r="E19" s="269" t="s">
         <v>291</v>
       </c>
       <c r="F19" s="169" t="s">
@@ -5680,7 +5725,7 @@
       <c r="D20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="288" t="s">
+      <c r="E20" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F20" s="167" t="s">
@@ -5700,7 +5745,7 @@
       <c r="D21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="289" t="s">
+      <c r="E21" s="267" t="s">
         <v>34</v>
       </c>
       <c r="F21" s="168" t="s">
@@ -5720,7 +5765,7 @@
       <c r="D22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="289" t="s">
+      <c r="E22" s="267" t="s">
         <v>296</v>
       </c>
       <c r="F22" s="168" t="s">
@@ -5740,7 +5785,7 @@
       <c r="D23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="289"/>
+      <c r="E23" s="267"/>
       <c r="F23" s="168" t="s">
         <v>76</v>
       </c>
@@ -5758,7 +5803,7 @@
       <c r="D24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="289"/>
+      <c r="E24" s="267"/>
       <c r="F24" s="168" t="s">
         <v>76</v>
       </c>
@@ -5776,7 +5821,7 @@
       <c r="D25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="289"/>
+      <c r="E25" s="267"/>
       <c r="F25" s="168" t="s">
         <v>76</v>
       </c>
@@ -5794,7 +5839,7 @@
       <c r="D26" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="291" t="s">
+      <c r="E26" s="269" t="s">
         <v>39</v>
       </c>
       <c r="F26" s="169" t="s">
@@ -5814,7 +5859,7 @@
       <c r="D27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="288" t="s">
+      <c r="E27" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F27" s="167" t="s">
@@ -5834,7 +5879,7 @@
       <c r="D28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="289" t="s">
+      <c r="E28" s="267" t="s">
         <v>449</v>
       </c>
       <c r="F28" s="168" t="s">
@@ -5854,7 +5899,7 @@
       <c r="D29" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="291" t="s">
+      <c r="E29" s="269" t="s">
         <v>299</v>
       </c>
       <c r="F29" s="169" t="s">
@@ -5874,7 +5919,7 @@
       <c r="D30" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="288" t="s">
+      <c r="E30" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F30" s="167" t="s">
@@ -5894,7 +5939,7 @@
       <c r="D31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="289" t="s">
+      <c r="E31" s="267" t="s">
         <v>298</v>
       </c>
       <c r="F31" s="168" t="s">
@@ -5931,7 +5976,7 @@
       <c r="D33" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="291" t="s">
+      <c r="E33" s="269" t="s">
         <v>297</v>
       </c>
       <c r="F33" s="169" t="s">
@@ -5951,7 +5996,7 @@
       <c r="D34" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="288" t="s">
+      <c r="E34" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F34" s="167" t="s">
@@ -5971,7 +6016,7 @@
       <c r="D35" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="291"/>
+      <c r="E35" s="269"/>
       <c r="F35" s="169" t="s">
         <v>76</v>
       </c>
@@ -5989,7 +6034,7 @@
       <c r="D36" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="288" t="s">
+      <c r="E36" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F36" s="167" t="s">
@@ -6009,7 +6054,7 @@
       <c r="D37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="289" t="s">
+      <c r="E37" s="267" t="s">
         <v>295</v>
       </c>
       <c r="F37" s="168" t="s">
@@ -6029,7 +6074,7 @@
       <c r="D38" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="291" t="s">
+      <c r="E38" s="269" t="s">
         <v>447</v>
       </c>
       <c r="F38" s="169" t="s">
@@ -6049,7 +6094,7 @@
       <c r="D39" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E39" s="288" t="s">
+      <c r="E39" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F39" s="167" t="s">
@@ -6086,7 +6131,7 @@
       <c r="D41" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="289" t="s">
+      <c r="E41" s="267" t="s">
         <v>300</v>
       </c>
       <c r="F41" s="168" t="s">
@@ -6106,7 +6151,7 @@
       <c r="D42" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="289" t="s">
+      <c r="E42" s="267" t="s">
         <v>301</v>
       </c>
       <c r="F42" s="168" t="s">
@@ -6126,7 +6171,7 @@
       <c r="D43" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="291" t="s">
+      <c r="E43" s="269" t="s">
         <v>302</v>
       </c>
       <c r="F43" s="169" t="s">
@@ -6146,7 +6191,7 @@
       <c r="D44" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E44" s="288" t="s">
+      <c r="E44" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F44" s="167" t="s">
@@ -6166,7 +6211,7 @@
       <c r="D45" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="289" t="s">
+      <c r="E45" s="267" t="s">
         <v>302</v>
       </c>
       <c r="F45" s="168" t="s">
@@ -6186,7 +6231,7 @@
       <c r="D46" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E46" s="289" t="s">
+      <c r="E46" s="267" t="s">
         <v>450</v>
       </c>
       <c r="F46" s="168" t="s">
@@ -6206,7 +6251,7 @@
       <c r="D47" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="291" t="s">
+      <c r="E47" s="269" t="s">
         <v>445</v>
       </c>
       <c r="F47" s="169" t="s">
@@ -6226,7 +6271,7 @@
       <c r="D48" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E48" s="288" t="s">
+      <c r="E48" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F48" s="167" t="s">
@@ -6246,7 +6291,7 @@
       <c r="D49" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E49" s="289" t="s">
+      <c r="E49" s="267" t="s">
         <v>665</v>
       </c>
       <c r="F49" s="168" t="s">
@@ -6270,7 +6315,7 @@
       <c r="F50" s="169" t="s">
         <v>76</v>
       </c>
-      <c r="H50" s="279" t="s">
+      <c r="H50" s="257" t="s">
         <v>668</v>
       </c>
     </row>
@@ -6287,7 +6332,7 @@
       <c r="D51" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E51" s="288" t="s">
+      <c r="E51" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F51" s="167" t="s">
@@ -6307,7 +6352,7 @@
       <c r="D52" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E52" s="289" t="s">
+      <c r="E52" s="267" t="s">
         <v>666</v>
       </c>
       <c r="F52" s="168" t="s">
@@ -6327,7 +6372,7 @@
       <c r="D53" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E53" s="291" t="s">
+      <c r="E53" s="269" t="s">
         <v>304</v>
       </c>
       <c r="F53" s="169" t="s">
@@ -6347,7 +6392,7 @@
       <c r="D54" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="288" t="s">
+      <c r="E54" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F54" s="167" t="s">
@@ -6367,7 +6412,7 @@
       <c r="D55" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E55" s="291" t="s">
+      <c r="E55" s="269" t="s">
         <v>305</v>
       </c>
       <c r="F55" s="169" t="s">
@@ -6387,7 +6432,7 @@
       <c r="D56" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E56" s="288" t="s">
+      <c r="E56" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F56" s="167" t="s">
@@ -6407,7 +6452,7 @@
       <c r="D57" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E57" s="292" t="s">
+      <c r="E57" s="270" t="s">
         <v>436</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -6427,7 +6472,7 @@
       <c r="D58" s="165" t="s">
         <v>667</v>
       </c>
-      <c r="E58" s="290" t="s">
+      <c r="E58" s="268" t="s">
         <v>667</v>
       </c>
       <c r="F58" s="169" t="s">
@@ -6447,7 +6492,7 @@
       <c r="D59" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="288" t="s">
+      <c r="E59" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F59" s="167" t="s">
@@ -6467,7 +6512,7 @@
       <c r="D60" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="E60" s="288" t="s">
+      <c r="E60" s="266" t="s">
         <v>440</v>
       </c>
       <c r="F60" s="167" t="s">
@@ -6487,7 +6532,7 @@
       <c r="D61" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="E61" s="288" t="s">
+      <c r="E61" s="266" t="s">
         <v>444</v>
       </c>
       <c r="F61" s="167" t="s">
@@ -6507,7 +6552,7 @@
       <c r="D62" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="E62" s="291" t="s">
+      <c r="E62" s="269" t="s">
         <v>438</v>
       </c>
       <c r="F62" s="169" t="s">
@@ -6527,7 +6572,7 @@
       <c r="D63" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="E63" s="288" t="s">
+      <c r="E63" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F63" s="167" t="s">
@@ -6547,7 +6592,7 @@
       <c r="D64" s="152" t="s">
         <v>425</v>
       </c>
-      <c r="E64" s="292" t="s">
+      <c r="E64" s="270" t="s">
         <v>429</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -6567,7 +6612,7 @@
       <c r="D65" s="152" t="s">
         <v>426</v>
       </c>
-      <c r="E65" s="292" t="s">
+      <c r="E65" s="270" t="s">
         <v>430</v>
       </c>
       <c r="F65" s="1" t="s">
@@ -6587,7 +6632,7 @@
       <c r="D66" s="79" t="s">
         <v>427</v>
       </c>
-      <c r="E66" s="291" t="s">
+      <c r="E66" s="269" t="s">
         <v>452</v>
       </c>
       <c r="F66" s="169" t="s">
@@ -6738,7 +6783,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1">
-      <c r="A1" s="271" t="s">
+      <c r="A1" s="287" t="s">
         <v>614</v>
       </c>
       <c r="B1" s="251" t="s">
@@ -6747,22 +6792,22 @@
       <c r="C1" s="251" t="s">
         <v>615</v>
       </c>
-      <c r="D1" s="271" t="s">
+      <c r="D1" s="287" t="s">
         <v>616</v>
       </c>
-      <c r="E1" s="271" t="s">
+      <c r="E1" s="287" t="s">
         <v>617</v>
       </c>
-      <c r="F1" s="271" t="s">
+      <c r="F1" s="287" t="s">
         <v>618</v>
       </c>
-      <c r="G1" s="271" t="s">
+      <c r="G1" s="287" t="s">
         <v>619</v>
       </c>
       <c r="H1" s="251" t="s">
         <v>620</v>
       </c>
-      <c r="I1" s="271" t="s">
+      <c r="I1" s="287" t="s">
         <v>621</v>
       </c>
       <c r="J1" s="251" t="s">
@@ -6774,53 +6819,53 @@
       <c r="L1" s="251" t="s">
         <v>624</v>
       </c>
-      <c r="M1" s="271" t="s">
+      <c r="M1" s="287" t="s">
         <v>625</v>
       </c>
-      <c r="N1" s="271" t="s">
+      <c r="N1" s="287" t="s">
         <v>596</v>
       </c>
-      <c r="O1" s="271" t="s">
+      <c r="O1" s="287" t="s">
         <v>626</v>
       </c>
-      <c r="P1" s="271" t="s">
+      <c r="P1" s="287" t="s">
         <v>627</v>
       </c>
       <c r="Q1" s="251" t="s">
         <v>628</v>
       </c>
-      <c r="R1" s="271" t="s">
+      <c r="R1" s="287" t="s">
         <v>629</v>
       </c>
-      <c r="S1" s="271" t="s">
+      <c r="S1" s="287" t="s">
         <v>630</v>
       </c>
-      <c r="T1" s="271" t="s">
+      <c r="T1" s="287" t="s">
         <v>631</v>
       </c>
-      <c r="U1" s="271" t="s">
+      <c r="U1" s="287" t="s">
         <v>632</v>
       </c>
-      <c r="V1" s="271" t="s">
+      <c r="V1" s="287" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="272"/>
+      <c r="A2" s="288"/>
       <c r="B2" s="252" t="s">
         <v>633</v>
       </c>
       <c r="C2" s="252" t="s">
         <v>634</v>
       </c>
-      <c r="D2" s="272"/>
-      <c r="E2" s="272"/>
-      <c r="F2" s="272"/>
-      <c r="G2" s="272"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="288"/>
+      <c r="F2" s="288"/>
+      <c r="G2" s="288"/>
       <c r="H2" s="252" t="s">
         <v>635</v>
       </c>
-      <c r="I2" s="272"/>
+      <c r="I2" s="288"/>
       <c r="J2" s="252" t="s">
         <v>636</v>
       </c>
@@ -6830,82 +6875,77 @@
       <c r="L2" s="252" t="s">
         <v>634</v>
       </c>
-      <c r="M2" s="272"/>
-      <c r="N2" s="272"/>
-      <c r="O2" s="272"/>
-      <c r="P2" s="272"/>
+      <c r="M2" s="288"/>
+      <c r="N2" s="288"/>
+      <c r="O2" s="288"/>
+      <c r="P2" s="288"/>
       <c r="Q2" s="252" t="s">
         <v>638</v>
       </c>
-      <c r="R2" s="272"/>
-      <c r="S2" s="272"/>
-      <c r="T2" s="272"/>
-      <c r="U2" s="272"/>
-      <c r="V2" s="272"/>
+      <c r="R2" s="288"/>
+      <c r="S2" s="288"/>
+      <c r="T2" s="288"/>
+      <c r="U2" s="288"/>
+      <c r="V2" s="288"/>
     </row>
     <row r="3" spans="1:22" ht="17.25">
-      <c r="A3" s="273" t="s">
+      <c r="A3" s="289" t="s">
         <v>639</v>
       </c>
-      <c r="B3" s="274"/>
-      <c r="C3" s="274"/>
-      <c r="D3" s="274"/>
-      <c r="E3" s="274"/>
-      <c r="F3" s="274"/>
-      <c r="G3" s="274"/>
-      <c r="H3" s="274"/>
-      <c r="I3" s="274"/>
-      <c r="J3" s="274"/>
-      <c r="K3" s="274"/>
-      <c r="L3" s="274"/>
-      <c r="M3" s="275"/>
-      <c r="N3" s="273" t="s">
+      <c r="B3" s="290"/>
+      <c r="C3" s="290"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="290"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290"/>
+      <c r="H3" s="290"/>
+      <c r="I3" s="290"/>
+      <c r="J3" s="290"/>
+      <c r="K3" s="290"/>
+      <c r="L3" s="290"/>
+      <c r="M3" s="291"/>
+      <c r="N3" s="289" t="s">
         <v>640</v>
       </c>
-      <c r="O3" s="274"/>
-      <c r="P3" s="274"/>
-      <c r="Q3" s="274"/>
-      <c r="R3" s="274"/>
-      <c r="S3" s="274"/>
-      <c r="T3" s="275"/>
-      <c r="U3" s="273" t="s">
+      <c r="O3" s="290"/>
+      <c r="P3" s="290"/>
+      <c r="Q3" s="290"/>
+      <c r="R3" s="290"/>
+      <c r="S3" s="290"/>
+      <c r="T3" s="291"/>
+      <c r="U3" s="289" t="s">
         <v>641</v>
       </c>
-      <c r="V3" s="275"/>
+      <c r="V3" s="291"/>
     </row>
     <row r="4" spans="1:22" ht="17.25">
-      <c r="A4" s="276"/>
-      <c r="B4" s="277"/>
-      <c r="C4" s="277"/>
-      <c r="D4" s="277"/>
-      <c r="E4" s="277"/>
-      <c r="F4" s="277"/>
-      <c r="G4" s="277"/>
-      <c r="H4" s="277"/>
-      <c r="I4" s="277"/>
-      <c r="J4" s="277"/>
-      <c r="K4" s="277"/>
-      <c r="L4" s="277"/>
-      <c r="M4" s="278"/>
-      <c r="N4" s="276"/>
-      <c r="O4" s="277"/>
-      <c r="P4" s="277"/>
-      <c r="Q4" s="277"/>
-      <c r="R4" s="277"/>
-      <c r="S4" s="277"/>
-      <c r="T4" s="278"/>
-      <c r="U4" s="276" t="s">
+      <c r="A4" s="292"/>
+      <c r="B4" s="293"/>
+      <c r="C4" s="293"/>
+      <c r="D4" s="293"/>
+      <c r="E4" s="293"/>
+      <c r="F4" s="293"/>
+      <c r="G4" s="293"/>
+      <c r="H4" s="293"/>
+      <c r="I4" s="293"/>
+      <c r="J4" s="293"/>
+      <c r="K4" s="293"/>
+      <c r="L4" s="293"/>
+      <c r="M4" s="294"/>
+      <c r="N4" s="292"/>
+      <c r="O4" s="293"/>
+      <c r="P4" s="293"/>
+      <c r="Q4" s="293"/>
+      <c r="R4" s="293"/>
+      <c r="S4" s="293"/>
+      <c r="T4" s="294"/>
+      <c r="U4" s="292" t="s">
         <v>642</v>
       </c>
-      <c r="V4" s="278"/>
+      <c r="V4" s="294"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="A3:M4"/>
@@ -6920,6 +6960,11 @@
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="T1:T2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6934,9 +6979,9 @@
   </sheetPr>
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7018,7 +7063,9 @@
       <c r="D2" s="82" t="s">
         <v>484</v>
       </c>
-      <c r="E2" s="82"/>
+      <c r="E2" s="82" t="s">
+        <v>669</v>
+      </c>
       <c r="F2" s="82"/>
       <c r="G2" s="82"/>
       <c r="H2" s="82" t="s">
@@ -7059,7 +7106,9 @@
       <c r="D3" s="76" t="s">
         <v>485</v>
       </c>
-      <c r="E3" s="76"/>
+      <c r="E3" s="76" t="s">
+        <v>670</v>
+      </c>
       <c r="F3" s="76"/>
       <c r="G3" s="76"/>
       <c r="H3" s="76" t="s">
@@ -7096,7 +7145,9 @@
       <c r="D4" s="81" t="s">
         <v>460</v>
       </c>
-      <c r="E4" s="81"/>
+      <c r="E4" s="81" t="s">
+        <v>671</v>
+      </c>
       <c r="F4" s="81"/>
       <c r="G4" s="81"/>
       <c r="H4" s="81" t="s">
@@ -7133,7 +7184,9 @@
       <c r="D5" s="81" t="s">
         <v>458</v>
       </c>
-      <c r="E5" s="77"/>
+      <c r="E5" s="77" t="s">
+        <v>672</v>
+      </c>
       <c r="F5" s="77"/>
       <c r="G5" s="77"/>
       <c r="H5" s="77" t="s">
@@ -7170,7 +7223,9 @@
       <c r="D6" s="246" t="s">
         <v>486</v>
       </c>
-      <c r="E6" s="78"/>
+      <c r="E6" s="78" t="s">
+        <v>673</v>
+      </c>
       <c r="F6" s="78"/>
       <c r="G6" s="78"/>
       <c r="H6" s="78" t="s">
@@ -7207,7 +7262,9 @@
       <c r="D7" s="82" t="s">
         <v>484</v>
       </c>
-      <c r="E7" s="82"/>
+      <c r="E7" s="82" t="s">
+        <v>674</v>
+      </c>
       <c r="F7" s="82"/>
       <c r="G7" s="82"/>
       <c r="H7" s="82" t="s">
@@ -7248,7 +7305,9 @@
       <c r="D8" s="81" t="s">
         <v>461</v>
       </c>
-      <c r="E8" s="77"/>
+      <c r="E8" s="77" t="s">
+        <v>675</v>
+      </c>
       <c r="F8" s="77"/>
       <c r="G8" s="77"/>
       <c r="H8" s="77" t="s">
@@ -7285,7 +7344,9 @@
       <c r="D9" s="81" t="s">
         <v>462</v>
       </c>
-      <c r="E9" s="77"/>
+      <c r="E9" s="77" t="s">
+        <v>676</v>
+      </c>
       <c r="F9" s="77"/>
       <c r="G9" s="77"/>
       <c r="H9" s="77" t="s">
@@ -7322,7 +7383,9 @@
       <c r="D10" s="80" t="s">
         <v>463</v>
       </c>
-      <c r="E10" s="80"/>
+      <c r="E10" s="80" t="s">
+        <v>677</v>
+      </c>
       <c r="F10" s="80"/>
       <c r="G10" s="80"/>
       <c r="H10" s="80" t="s">
@@ -7359,7 +7422,9 @@
       <c r="D11" s="82" t="s">
         <v>484</v>
       </c>
-      <c r="E11" s="82"/>
+      <c r="E11" s="82" t="s">
+        <v>678</v>
+      </c>
       <c r="F11" s="82"/>
       <c r="G11" s="82"/>
       <c r="H11" s="82" t="s">
@@ -7400,7 +7465,9 @@
       <c r="D12" s="81" t="s">
         <v>464</v>
       </c>
-      <c r="E12" s="77"/>
+      <c r="E12" s="77" t="s">
+        <v>679</v>
+      </c>
       <c r="F12" s="77"/>
       <c r="G12" s="77"/>
       <c r="H12" s="77" t="s">
@@ -7437,7 +7504,9 @@
       <c r="D13" s="81" t="s">
         <v>465</v>
       </c>
-      <c r="E13" s="81"/>
+      <c r="E13" s="81" t="s">
+        <v>680</v>
+      </c>
       <c r="F13" s="81"/>
       <c r="G13" s="81"/>
       <c r="H13" s="81" t="s">
@@ -7474,7 +7543,9 @@
       <c r="D14" s="81" t="s">
         <v>466</v>
       </c>
-      <c r="E14" s="77"/>
+      <c r="E14" s="77" t="s">
+        <v>681</v>
+      </c>
       <c r="F14" s="77"/>
       <c r="G14" s="77"/>
       <c r="H14" s="77" t="s">
@@ -7511,7 +7582,9 @@
       <c r="D15" s="80" t="s">
         <v>467</v>
       </c>
-      <c r="E15" s="80"/>
+      <c r="E15" s="80" t="s">
+        <v>682</v>
+      </c>
       <c r="F15" s="80"/>
       <c r="G15" s="80"/>
       <c r="H15" s="80" t="s">
@@ -8575,7 +8648,7 @@
       <c r="C42" s="169" t="s">
         <v>665</v>
       </c>
-      <c r="D42" s="280"/>
+      <c r="D42" s="258"/>
       <c r="E42" s="79"/>
       <c r="F42" s="79"/>
       <c r="G42" s="79"/>
@@ -8688,7 +8761,7 @@
       <c r="C45" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="D45" s="280"/>
+      <c r="D45" s="258"/>
       <c r="E45" s="79"/>
       <c r="F45" s="79"/>
       <c r="G45" s="79"/>
@@ -9178,7 +9251,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -9198,60 +9271,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25">
-      <c r="A1" s="257" t="s">
+      <c r="A1" s="273" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="257"/>
-      <c r="J1" s="257"/>
-      <c r="K1" s="257"/>
-      <c r="L1" s="257"/>
-      <c r="M1" s="257"/>
-      <c r="N1" s="257"/>
+      <c r="B1" s="273"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
+      <c r="F1" s="273"/>
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="273"/>
+      <c r="J1" s="273"/>
+      <c r="K1" s="273"/>
+      <c r="L1" s="273"/>
+      <c r="M1" s="273"/>
+      <c r="N1" s="273"/>
     </row>
     <row r="2" spans="1:15" s="54" customFormat="1" ht="20.25">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="274" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="258"/>
-      <c r="I2" s="258"/>
-      <c r="J2" s="258"/>
-      <c r="K2" s="258"/>
-      <c r="L2" s="258"/>
-      <c r="M2" s="258"/>
-      <c r="N2" s="258"/>
+      <c r="B2" s="274"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="274"/>
+      <c r="F2" s="274"/>
+      <c r="G2" s="274"/>
+      <c r="H2" s="274"/>
+      <c r="I2" s="274"/>
+      <c r="J2" s="274"/>
+      <c r="K2" s="274"/>
+      <c r="L2" s="274"/>
+      <c r="M2" s="274"/>
+      <c r="N2" s="274"/>
     </row>
     <row r="3" spans="1:15" ht="17.25">
-      <c r="A3" s="259" t="s">
+      <c r="A3" s="275" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="260"/>
-      <c r="C3" s="260"/>
-      <c r="D3" s="260"/>
-      <c r="E3" s="260"/>
-      <c r="F3" s="260"/>
-      <c r="G3" s="261"/>
-      <c r="H3" s="259" t="s">
+      <c r="B3" s="276"/>
+      <c r="C3" s="276"/>
+      <c r="D3" s="276"/>
+      <c r="E3" s="276"/>
+      <c r="F3" s="276"/>
+      <c r="G3" s="277"/>
+      <c r="H3" s="275" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="260"/>
-      <c r="J3" s="260"/>
-      <c r="K3" s="260"/>
-      <c r="L3" s="260"/>
-      <c r="M3" s="260"/>
-      <c r="N3" s="260"/>
+      <c r="I3" s="276"/>
+      <c r="J3" s="276"/>
+      <c r="K3" s="276"/>
+      <c r="L3" s="276"/>
+      <c r="M3" s="276"/>
+      <c r="N3" s="276"/>
       <c r="O3" s="202" t="s">
         <v>554</v>
       </c>
@@ -10442,7 +10515,7 @@
   </sheetPr>
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G85" sqref="G85"/>
     </sheetView>
@@ -10493,13 +10566,13 @@
       <c r="D2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="288" t="s">
+      <c r="E2" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F2" s="167" t="s">
         <v>571</v>
       </c>
-      <c r="G2" s="281"/>
+      <c r="G2" s="259"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="89" t="s">
@@ -10580,13 +10653,13 @@
       <c r="D7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="288" t="s">
+      <c r="E7" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F7" s="167" t="s">
         <v>571</v>
       </c>
-      <c r="G7" s="282"/>
+      <c r="G7" s="260"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="95" t="s">
@@ -10686,13 +10759,13 @@
       <c r="D13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="288" t="s">
+      <c r="E13" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F13" s="167" t="s">
         <v>571</v>
       </c>
-      <c r="G13" s="282"/>
+      <c r="G13" s="260"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="89" t="s">
@@ -10745,7 +10818,7 @@
       <c r="F16" s="100"/>
       <c r="G16" s="100"/>
     </row>
-    <row r="17" spans="1:7" s="284" customFormat="1" ht="17.25" thickBot="1">
+    <row r="17" spans="1:7" s="262" customFormat="1" ht="17.25" thickBot="1">
       <c r="A17" s="226" t="s">
         <v>186</v>
       </c>
@@ -10758,13 +10831,13 @@
       <c r="D17" s="228" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="294" t="s">
+      <c r="E17" s="272" t="s">
         <v>78</v>
       </c>
       <c r="F17" s="228" t="s">
         <v>571</v>
       </c>
-      <c r="G17" s="283"/>
+      <c r="G17" s="261"/>
     </row>
     <row r="18" spans="1:7" s="214" customFormat="1">
       <c r="A18" s="89" t="s">
@@ -10779,13 +10852,13 @@
       <c r="D18" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="288" t="s">
+      <c r="E18" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F18" s="167" t="s">
         <v>571</v>
       </c>
-      <c r="G18" s="282"/>
+      <c r="G18" s="260"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="89" t="s">
@@ -10851,13 +10924,13 @@
       <c r="D22" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="288" t="s">
+      <c r="E22" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F22" s="167" t="s">
         <v>571</v>
       </c>
-      <c r="G22" s="282"/>
+      <c r="G22" s="260"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="89" t="s">
@@ -10953,13 +11026,13 @@
       <c r="D28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="288" t="s">
+      <c r="E28" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F28" s="167" t="s">
         <v>571</v>
       </c>
-      <c r="G28" s="282"/>
+      <c r="G28" s="260"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="89" t="s">
@@ -11023,13 +11096,13 @@
       <c r="D32" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="288" t="s">
+      <c r="E32" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F32" s="167" t="s">
         <v>571</v>
       </c>
-      <c r="G32" s="282"/>
+      <c r="G32" s="260"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="89" t="s">
@@ -11093,13 +11166,13 @@
       <c r="D36" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="288" t="s">
+      <c r="E36" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F36" s="167" t="s">
         <v>571</v>
       </c>
-      <c r="G36" s="282"/>
+      <c r="G36" s="260"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="89" t="s">
@@ -11176,13 +11249,13 @@
       <c r="D41" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="288" t="s">
+      <c r="E41" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F41" s="167" t="s">
         <v>571</v>
       </c>
-      <c r="G41" s="282"/>
+      <c r="G41" s="260"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="89" t="s">
@@ -11246,13 +11319,13 @@
       <c r="D45" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E45" s="288" t="s">
+      <c r="E45" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F45" s="167" t="s">
         <v>571</v>
       </c>
-      <c r="G45" s="282"/>
+      <c r="G45" s="260"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="89" t="s">
@@ -11299,13 +11372,13 @@
       <c r="D48" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E48" s="288" t="s">
+      <c r="E48" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F48" s="167" t="s">
         <v>571</v>
       </c>
-      <c r="G48" s="282"/>
+      <c r="G48" s="260"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="89" t="s">
@@ -11369,13 +11442,13 @@
       <c r="D52" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E52" s="288" t="s">
+      <c r="E52" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F52" s="167" t="s">
         <v>571</v>
       </c>
-      <c r="G52" s="282"/>
+      <c r="G52" s="260"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="89" t="s">
@@ -11439,13 +11512,13 @@
       <c r="D56" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E56" s="288" t="s">
+      <c r="E56" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F56" s="167" t="s">
         <v>571</v>
       </c>
-      <c r="G56" s="282"/>
+      <c r="G56" s="260"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="89" t="s">
@@ -11494,13 +11567,13 @@
       <c r="D59" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="288" t="s">
+      <c r="E59" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F59" s="167" t="s">
         <v>571</v>
       </c>
-      <c r="G59" s="282"/>
+      <c r="G59" s="260"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="89" t="s">
@@ -11554,25 +11627,25 @@
       <c r="G62" s="100"/>
     </row>
     <row r="63" spans="1:7" s="214" customFormat="1">
-      <c r="A63" s="285" t="s">
+      <c r="A63" s="263" t="s">
         <v>186</v>
       </c>
-      <c r="B63" s="285" t="s">
+      <c r="B63" s="263" t="s">
         <v>268</v>
       </c>
-      <c r="C63" s="286" t="s">
+      <c r="C63" s="264" t="s">
         <v>315</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E63" s="293" t="s">
+      <c r="E63" s="271" t="s">
         <v>78</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="G63" s="282"/>
+      <c r="G63" s="260"/>
     </row>
     <row r="64" spans="1:7" s="83" customFormat="1" ht="17.25" thickBot="1">
       <c r="A64" s="105" t="s">
@@ -11592,25 +11665,25 @@
       <c r="G64" s="100"/>
     </row>
     <row r="65" spans="1:7" s="214" customFormat="1">
-      <c r="A65" s="285" t="s">
+      <c r="A65" s="263" t="s">
         <v>186</v>
       </c>
-      <c r="B65" s="285" t="s">
+      <c r="B65" s="263" t="s">
         <v>268</v>
       </c>
-      <c r="C65" s="286" t="s">
+      <c r="C65" s="264" t="s">
         <v>359</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E65" s="293" t="s">
+      <c r="E65" s="271" t="s">
         <v>78</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="G65" s="282"/>
+      <c r="G65" s="260"/>
     </row>
     <row r="66" spans="1:7" s="83" customFormat="1" ht="17.25" thickBot="1">
       <c r="A66" s="105" t="s">
@@ -11642,13 +11715,13 @@
       <c r="D67" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E67" s="288" t="s">
+      <c r="E67" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F67" s="167" t="s">
         <v>571</v>
       </c>
-      <c r="G67" s="282"/>
+      <c r="G67" s="260"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="89" t="s">
@@ -11708,13 +11781,13 @@
       <c r="D71" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E71" s="288" t="s">
+      <c r="E71" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F71" s="167" t="s">
         <v>571</v>
       </c>
-      <c r="G71" s="282"/>
+      <c r="G71" s="260"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="89" t="s">
@@ -11774,13 +11847,13 @@
       <c r="D75" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E75" s="288" t="s">
+      <c r="E75" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F75" s="167" t="s">
         <v>571</v>
       </c>
-      <c r="G75" s="282"/>
+      <c r="G75" s="260"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="89" t="s">
@@ -11895,13 +11968,13 @@
       <c r="D82" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E82" s="288" t="s">
+      <c r="E82" s="266" t="s">
         <v>78</v>
       </c>
       <c r="F82" s="167" t="s">
         <v>571</v>
       </c>
-      <c r="G82" s="282"/>
+      <c r="G82" s="260"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="89" t="s">
@@ -15289,7 +15362,7 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -15312,60 +15385,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="15" customFormat="1" ht="20.25">
-      <c r="A1" s="257" t="s">
+      <c r="A1" s="273" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="257"/>
-      <c r="J1" s="257"/>
-      <c r="K1" s="257"/>
-      <c r="L1" s="257"/>
-      <c r="M1" s="257"/>
-      <c r="N1" s="257"/>
+      <c r="B1" s="273"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
+      <c r="F1" s="273"/>
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="273"/>
+      <c r="J1" s="273"/>
+      <c r="K1" s="273"/>
+      <c r="L1" s="273"/>
+      <c r="M1" s="273"/>
+      <c r="N1" s="273"/>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="274" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="258"/>
-      <c r="I2" s="258"/>
-      <c r="J2" s="258"/>
-      <c r="K2" s="258"/>
-      <c r="L2" s="258"/>
-      <c r="M2" s="258"/>
-      <c r="N2" s="258"/>
+      <c r="B2" s="274"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="274"/>
+      <c r="F2" s="274"/>
+      <c r="G2" s="274"/>
+      <c r="H2" s="274"/>
+      <c r="I2" s="274"/>
+      <c r="J2" s="274"/>
+      <c r="K2" s="274"/>
+      <c r="L2" s="274"/>
+      <c r="M2" s="274"/>
+      <c r="N2" s="274"/>
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A3" s="259" t="s">
+      <c r="A3" s="275" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="260"/>
-      <c r="C3" s="260"/>
-      <c r="D3" s="260"/>
-      <c r="E3" s="260"/>
-      <c r="F3" s="260"/>
-      <c r="G3" s="261"/>
-      <c r="H3" s="259" t="s">
+      <c r="B3" s="276"/>
+      <c r="C3" s="276"/>
+      <c r="D3" s="276"/>
+      <c r="E3" s="276"/>
+      <c r="F3" s="276"/>
+      <c r="G3" s="277"/>
+      <c r="H3" s="275" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="260"/>
-      <c r="J3" s="260"/>
-      <c r="K3" s="260"/>
-      <c r="L3" s="260"/>
-      <c r="M3" s="260"/>
-      <c r="N3" s="260"/>
+      <c r="I3" s="276"/>
+      <c r="J3" s="276"/>
+      <c r="K3" s="276"/>
+      <c r="L3" s="276"/>
+      <c r="M3" s="276"/>
+      <c r="N3" s="276"/>
       <c r="O3" s="202" t="s">
         <v>554</v>
       </c>
@@ -17069,34 +17142,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="278" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="262" t="s">
+      <c r="B1" s="278" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="262" t="s">
+      <c r="C1" s="278" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="264" t="s">
+      <c r="D1" s="280" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="264"/>
-      <c r="F1" s="262" t="s">
+      <c r="E1" s="280"/>
+      <c r="F1" s="278" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" thickBot="1">
-      <c r="A2" s="263"/>
-      <c r="B2" s="263"/>
-      <c r="C2" s="263"/>
+      <c r="A2" s="279"/>
+      <c r="B2" s="279"/>
+      <c r="C2" s="279"/>
       <c r="D2" s="126" t="s">
         <v>229</v>
       </c>
       <c r="E2" s="126" t="s">
         <v>230</v>
       </c>
-      <c r="F2" s="263"/>
+      <c r="F2" s="279"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickTop="1">
       <c r="A3" s="127" t="s">
@@ -17339,7 +17412,7 @@
   <dimension ref="B2:H34"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H16" sqref="B3:H16"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17357,10 +17430,10 @@
       <c r="D2" s="125"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="266" t="s">
+      <c r="B3" s="282" t="s">
         <v>412</v>
       </c>
-      <c r="C3" s="266"/>
+      <c r="C3" s="282"/>
       <c r="D3" s="121" t="s">
         <v>411</v>
       </c>
@@ -17378,10 +17451,10 @@
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="267" t="s">
+      <c r="B4" s="283" t="s">
         <v>234</v>
       </c>
-      <c r="C4" s="268"/>
+      <c r="C4" s="284"/>
       <c r="D4" s="124" t="s">
         <v>410</v>
       </c>
@@ -17399,7 +17472,7 @@
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="269" t="s">
+      <c r="B5" s="285" t="s">
         <v>407</v>
       </c>
       <c r="C5" s="141" t="s">
@@ -17420,7 +17493,7 @@
       <c r="H5" s="116"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="270"/>
+      <c r="B6" s="286"/>
       <c r="C6" s="141" t="s">
         <v>414</v>
       </c>
@@ -17459,10 +17532,10 @@
       <c r="H8" s="150"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="266" t="s">
+      <c r="B10" s="282" t="s">
         <v>400</v>
       </c>
-      <c r="C10" s="266"/>
+      <c r="C10" s="282"/>
       <c r="D10" s="121" t="s">
         <v>399</v>
       </c>
@@ -17480,10 +17553,10 @@
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="265" t="s">
+      <c r="B11" s="281" t="s">
         <v>394</v>
       </c>
-      <c r="C11" s="265"/>
+      <c r="C11" s="281"/>
       <c r="D11" s="110" t="s">
         <v>393</v>
       </c>
@@ -17501,10 +17574,10 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="66">
-      <c r="B12" s="265" t="s">
+      <c r="B12" s="281" t="s">
         <v>392</v>
       </c>
-      <c r="C12" s="265"/>
+      <c r="C12" s="281"/>
       <c r="D12" s="110" t="s">
         <v>391</v>
       </c>
@@ -17522,10 +17595,10 @@
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="265" t="s">
+      <c r="B13" s="281" t="s">
         <v>388</v>
       </c>
-      <c r="C13" s="265"/>
+      <c r="C13" s="281"/>
       <c r="D13" s="110" t="s">
         <v>387</v>
       </c>
@@ -17541,10 +17614,10 @@
       <c r="H13" s="144"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="265" t="s">
+      <c r="B14" s="281" t="s">
         <v>386</v>
       </c>
-      <c r="C14" s="265"/>
+      <c r="C14" s="281"/>
       <c r="D14" s="110" t="s">
         <v>385</v>
       </c>
@@ -17562,10 +17635,10 @@
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="265" t="s">
+      <c r="B15" s="281" t="s">
         <v>383</v>
       </c>
-      <c r="C15" s="265"/>
+      <c r="C15" s="281"/>
       <c r="D15" s="120"/>
       <c r="E15" s="119" t="s">
         <v>382</v>
@@ -17579,10 +17652,10 @@
       <c r="H15" s="142"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="265" t="s">
+      <c r="B16" s="281" t="s">
         <v>380</v>
       </c>
-      <c r="C16" s="265"/>
+      <c r="C16" s="281"/>
       <c r="D16" s="110" t="s">
         <v>415</v>
       </c>
